--- a/parameter_database.xlsx
+++ b/parameter_database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="2689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4857" uniqueCount="2688">
   <si>
     <t>On-Board Parameters</t>
   </si>
@@ -7573,7 +7573,7 @@
     <t>COMMS-001</t>
   </si>
   <si>
-    <t>uhf_power_amp_temp</t>
+    <t>UHF_POWER_AMP_TEMP</t>
   </si>
   <si>
     <t>UHF band PA temperature</t>
@@ -7582,7 +7582,7 @@
     <t>COMMS-002</t>
   </si>
   <si>
-    <t>pcb_temp</t>
+    <t>PCB_TEMP</t>
   </si>
   <si>
     <t>COMMS PCB temperature 1</t>
@@ -7591,7 +7591,7 @@
     <t>COMMS-003</t>
   </si>
   <si>
-    <t>gnss_temp</t>
+    <t>GNSS_TEMP</t>
   </si>
   <si>
     <t>COMMS PCB temperature 2</t>
@@ -7606,7 +7606,7 @@
     <t>COMMS-005</t>
   </si>
   <si>
-    <t>antenna_deployment_status</t>
+    <t>ANTENNA_DEPLOYMENT_STATUS</t>
   </si>
   <si>
     <t>Antenna deployment status</t>
@@ -7640,7 +7640,7 @@
     <t>COMMS-008</t>
   </si>
   <si>
-    <t>cw_interval</t>
+    <t>CW_INTERVAL</t>
   </si>
   <si>
     <t>CW Interval</t>
@@ -7649,7 +7649,7 @@
     <t>COMMS-009</t>
   </si>
   <si>
-    <t>bfsk_beacon_interval</t>
+    <t>BFSK_BEAKON_INTERVAL</t>
   </si>
   <si>
     <t>Gaussian BFSK Beacon Interval</t>
@@ -7658,7 +7658,7 @@
     <t>COMMS-010</t>
   </si>
   <si>
-    <t>uhf_tx_power</t>
+    <t>UHF_TX_POWER</t>
   </si>
   <si>
     <t xml:space="preserve">UHF band TX Power </t>
@@ -7700,7 +7700,7 @@
     <t>COMMS-015</t>
   </si>
   <si>
-    <t>rssi</t>
+    <t>RSSI</t>
   </si>
   <si>
     <t>Received signal strength indicator (RSSI)</t>
@@ -7808,7 +7808,7 @@
     <t>COMMS-031</t>
   </si>
   <si>
-    <t>gnss_lat</t>
+    <t>GNSS_LAT</t>
   </si>
   <si>
     <t>GNSS Position (Lat)</t>
@@ -7820,7 +7820,7 @@
     <t>COMMS-032</t>
   </si>
   <si>
-    <t>gnss_long</t>
+    <t>GNSS_LONG</t>
   </si>
   <si>
     <t>GNSS Position (Long)</t>
@@ -7829,7 +7829,7 @@
     <t>COMMS-033</t>
   </si>
   <si>
-    <t>gnss_alt</t>
+    <t>GNSS_ALT</t>
   </si>
   <si>
     <t>GNSS Position (Alt)</t>
@@ -7838,13 +7838,13 @@
     <t>COMMS-034</t>
   </si>
   <si>
-    <t>gnss_time</t>
+    <t>GNSS_TIME</t>
   </si>
   <si>
     <t>COMMS-035</t>
   </si>
   <si>
-    <t>gnss_ack_timeout</t>
+    <t>GNSS_ACK_TIMEOUT</t>
   </si>
   <si>
     <t>GNSS ACK Timeout for its response (ISR)</t>
@@ -7853,7 +7853,7 @@
     <t>COMMS-036</t>
   </si>
   <si>
-    <t>gnss_cmd_retries</t>
+    <t>GNSS_CMD_RETRIES</t>
   </si>
   <si>
     <t>How many retries have to be done for a command before an error is raised</t>
@@ -7862,7 +7862,7 @@
     <t>COMMS-037</t>
   </si>
   <si>
-    <t>gnss_error_timeout</t>
+    <t>GNSS_ERROR_TIMEOUT</t>
   </si>
   <si>
     <t>GNSS Error Timeout for the periodic message from the GNSS</t>
@@ -7871,7 +7871,7 @@
     <t>COMMS-038</t>
   </si>
   <si>
-    <t>error_timeout_cnt_thrhd</t>
+    <t>ERROR_TIMEOUT_CNT_THRHD</t>
   </si>
   <si>
     <t>Counter for the above error that resets the GNSS</t>
@@ -7880,7 +7880,7 @@
     <t>COMMS-039</t>
   </si>
   <si>
-    <t>gnss_delay_cmds</t>
+    <t>GNSS_DELAY_CMDS</t>
   </si>
   <si>
     <t>Delay between commands (must be above 100)</t>
@@ -7889,7 +7889,7 @@
     <t>COMMS-040</t>
   </si>
   <si>
-    <t>satellites_tracked</t>
+    <t>SATELLITES_TRACKED</t>
   </si>
   <si>
     <t>How many satellites are tracked</t>
@@ -7898,7 +7898,7 @@
     <t>COMMS-041</t>
   </si>
   <si>
-    <t>gnss_fix_quality</t>
+    <t>GNSS_FIX_QUALITY</t>
   </si>
   <si>
     <t>GNSS signal quality</t>
@@ -7907,7 +7907,7 @@
     <t>COMMS-042</t>
   </si>
   <si>
-    <t>gnss_TM_data_period</t>
+    <t>GNSS_TM_DATA_PERIOD</t>
   </si>
   <si>
     <t>Time between consecutive GNSS data</t>
@@ -7919,9 +7919,6 @@
     <t>COMMS-043</t>
   </si>
   <si>
-    <t>commit_hash</t>
-  </si>
-  <si>
     <t>COMMS Software commit hash</t>
   </si>
   <si>
@@ -8177,7 +8174,7 @@
     <t>COMMS-086</t>
   </si>
   <si>
-    <t>emmc_usage</t>
+    <t>EMMC_USAGE</t>
   </si>
   <si>
     <t>eMMC usage</t>
@@ -54131,14 +54128,14 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="K2:O2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J4:J47 J49:J1249">
@@ -69376,7 +69373,7 @@
     <col customWidth="1" min="1" max="1" width="11.63"/>
     <col customWidth="1" min="3" max="3" width="16.0"/>
     <col customWidth="1" min="4" max="4" width="6.13"/>
-    <col customWidth="1" min="5" max="5" width="23.0"/>
+    <col customWidth="1" min="5" max="5" width="27.38"/>
     <col customWidth="1" min="6" max="6" width="34.38"/>
     <col customWidth="1" min="7" max="7" width="18.38"/>
     <col customWidth="1" min="8" max="10" width="14.25"/>
@@ -71234,16 +71231,16 @@
         <v>266</v>
       </c>
       <c r="C51" s="127" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D51" s="127">
         <v>1.0</v>
       </c>
       <c r="E51" s="127" t="s">
+        <v>1828</v>
+      </c>
+      <c r="F51" s="128" t="s">
         <v>2601</v>
-      </c>
-      <c r="F51" s="128" t="s">
-        <v>2602</v>
       </c>
       <c r="G51" s="127"/>
       <c r="H51" s="127"/>
@@ -71269,10 +71266,10 @@
     </row>
     <row r="52">
       <c r="A52" s="261" t="s">
+        <v>2602</v>
+      </c>
+      <c r="B52" s="127" t="s">
         <v>2603</v>
-      </c>
-      <c r="B52" s="127" t="s">
-        <v>2604</v>
       </c>
       <c r="C52" s="256" t="s">
         <v>1758</v>
@@ -71282,7 +71279,7 @@
       </c>
       <c r="E52" s="127"/>
       <c r="F52" s="128" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="G52" s="127"/>
       <c r="H52" s="127"/>
@@ -71308,10 +71305,10 @@
     </row>
     <row r="53">
       <c r="A53" s="261" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="B53" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C53" s="256" t="s">
         <v>1758</v>
@@ -71321,7 +71318,7 @@
       </c>
       <c r="E53" s="262"/>
       <c r="F53" s="128" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="G53" s="262"/>
       <c r="H53" s="262"/>
@@ -71347,10 +71344,10 @@
     </row>
     <row r="54">
       <c r="A54" s="261" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="B54" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C54" s="256" t="s">
         <v>1758</v>
@@ -71360,7 +71357,7 @@
       </c>
       <c r="E54" s="262"/>
       <c r="F54" s="128" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="G54" s="262"/>
       <c r="H54" s="262"/>
@@ -71386,10 +71383,10 @@
     </row>
     <row r="55">
       <c r="A55" s="261" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="B55" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C55" s="256" t="s">
         <v>1758</v>
@@ -71399,7 +71396,7 @@
       </c>
       <c r="E55" s="262"/>
       <c r="F55" s="128" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="G55" s="262"/>
       <c r="H55" s="262"/>
@@ -71425,10 +71422,10 @@
     </row>
     <row r="56">
       <c r="A56" s="261" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="B56" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C56" s="256" t="s">
         <v>1758</v>
@@ -71438,7 +71435,7 @@
       </c>
       <c r="E56" s="262"/>
       <c r="F56" s="255" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="G56" s="262"/>
       <c r="H56" s="262"/>
@@ -71464,10 +71461,10 @@
     </row>
     <row r="57">
       <c r="A57" s="261" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="B57" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C57" s="256" t="s">
         <v>286</v>
@@ -71477,7 +71474,7 @@
       </c>
       <c r="E57" s="262"/>
       <c r="F57" s="255" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="G57" s="262"/>
       <c r="H57" s="262"/>
@@ -71501,10 +71498,10 @@
     </row>
     <row r="58">
       <c r="A58" s="261" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="B58" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C58" s="256" t="s">
         <v>286</v>
@@ -71514,7 +71511,7 @@
       </c>
       <c r="E58" s="262"/>
       <c r="F58" s="255" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="G58" s="262"/>
       <c r="H58" s="262"/>
@@ -71538,10 +71535,10 @@
     </row>
     <row r="59">
       <c r="A59" s="261" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="B59" s="127" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C59" s="256" t="s">
         <v>286</v>
@@ -71551,7 +71548,7 @@
       </c>
       <c r="E59" s="262"/>
       <c r="F59" s="255" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="G59" s="262"/>
       <c r="H59" s="262"/>
@@ -71575,13 +71572,13 @@
     </row>
     <row r="60">
       <c r="A60" s="261" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="B60" s="127" t="s">
         <v>266</v>
       </c>
       <c r="C60" s="256" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D60" s="256">
         <v>1.0</v>
@@ -71614,13 +71611,13 @@
     </row>
     <row r="61">
       <c r="A61" s="261" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="B61" s="127" t="s">
         <v>266</v>
       </c>
       <c r="C61" s="256" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="D61" s="256">
         <v>1.0</v>
@@ -71653,7 +71650,7 @@
     </row>
     <row r="62">
       <c r="A62" s="261" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="B62" s="127" t="s">
         <v>266</v>
@@ -71666,7 +71663,7 @@
       </c>
       <c r="E62" s="262"/>
       <c r="F62" s="255" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="G62" s="262"/>
       <c r="H62" s="262"/>
@@ -71690,7 +71687,7 @@
     </row>
     <row r="63">
       <c r="A63" s="261" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="B63" s="127" t="s">
         <v>266</v>
@@ -71703,7 +71700,7 @@
       </c>
       <c r="E63" s="262"/>
       <c r="F63" s="255" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="G63" s="262"/>
       <c r="H63" s="262"/>
@@ -71727,7 +71724,7 @@
     </row>
     <row r="64">
       <c r="A64" s="261" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="B64" s="127" t="s">
         <v>266</v>
@@ -71740,7 +71737,7 @@
       </c>
       <c r="E64" s="262"/>
       <c r="F64" s="255" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="G64" s="262"/>
       <c r="H64" s="262"/>
@@ -71764,7 +71761,7 @@
     </row>
     <row r="65">
       <c r="A65" s="261" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="B65" s="127" t="s">
         <v>266</v>
@@ -71777,7 +71774,7 @@
       </c>
       <c r="E65" s="262"/>
       <c r="F65" s="255" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="G65" s="262"/>
       <c r="H65" s="262"/>
@@ -71801,7 +71798,7 @@
     </row>
     <row r="66">
       <c r="A66" s="261" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="B66" s="127" t="s">
         <v>266</v>
@@ -71814,7 +71811,7 @@
       </c>
       <c r="E66" s="262"/>
       <c r="F66" s="255" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="G66" s="262"/>
       <c r="H66" s="262"/>
@@ -71838,7 +71835,7 @@
     </row>
     <row r="67">
       <c r="A67" s="261" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="B67" s="127" t="s">
         <v>266</v>
@@ -71851,7 +71848,7 @@
       </c>
       <c r="E67" s="262"/>
       <c r="F67" s="255" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="G67" s="262"/>
       <c r="H67" s="262"/>
@@ -71875,7 +71872,7 @@
     </row>
     <row r="68">
       <c r="A68" s="261" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="B68" s="127" t="s">
         <v>266</v>
@@ -71888,7 +71885,7 @@
       </c>
       <c r="E68" s="262"/>
       <c r="F68" s="255" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="G68" s="262"/>
       <c r="H68" s="262"/>
@@ -71912,7 +71909,7 @@
     </row>
     <row r="69">
       <c r="A69" s="261" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="B69" s="127" t="s">
         <v>266</v>
@@ -71925,7 +71922,7 @@
       </c>
       <c r="E69" s="262"/>
       <c r="F69" s="255" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="G69" s="262"/>
       <c r="H69" s="262"/>
@@ -71949,7 +71946,7 @@
     </row>
     <row r="70">
       <c r="A70" s="261" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="B70" s="127" t="s">
         <v>266</v>
@@ -71962,7 +71959,7 @@
       </c>
       <c r="E70" s="262"/>
       <c r="F70" s="255" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="G70" s="262"/>
       <c r="H70" s="262"/>
@@ -71986,7 +71983,7 @@
     </row>
     <row r="71">
       <c r="A71" s="261" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="B71" s="127" t="s">
         <v>266</v>
@@ -71999,7 +71996,7 @@
       </c>
       <c r="E71" s="262"/>
       <c r="F71" s="255" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="G71" s="262"/>
       <c r="H71" s="262"/>
@@ -72023,7 +72020,7 @@
     </row>
     <row r="72">
       <c r="A72" s="261" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="B72" s="127" t="s">
         <v>266</v>
@@ -72036,7 +72033,7 @@
       </c>
       <c r="E72" s="262"/>
       <c r="F72" s="255" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="G72" s="262"/>
       <c r="H72" s="262"/>
@@ -72060,7 +72057,7 @@
     </row>
     <row r="73">
       <c r="A73" s="261" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="B73" s="127" t="s">
         <v>266</v>
@@ -72073,7 +72070,7 @@
       </c>
       <c r="E73" s="262"/>
       <c r="F73" s="255" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="G73" s="262"/>
       <c r="H73" s="262"/>
@@ -72097,7 +72094,7 @@
     </row>
     <row r="74">
       <c r="A74" s="261" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
       <c r="B74" s="127" t="s">
         <v>266</v>
@@ -72110,7 +72107,7 @@
       </c>
       <c r="E74" s="262"/>
       <c r="F74" s="255" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="G74" s="262"/>
       <c r="H74" s="262"/>
@@ -72134,7 +72131,7 @@
     </row>
     <row r="75">
       <c r="A75" s="261" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="B75" s="127" t="s">
         <v>266</v>
@@ -72147,7 +72144,7 @@
       </c>
       <c r="E75" s="262"/>
       <c r="F75" s="255" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="G75" s="262"/>
       <c r="H75" s="262"/>
@@ -72171,7 +72168,7 @@
     </row>
     <row r="76">
       <c r="A76" s="261" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="B76" s="127" t="s">
         <v>266</v>
@@ -72184,7 +72181,7 @@
       </c>
       <c r="E76" s="268"/>
       <c r="F76" s="255" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="G76" s="268"/>
       <c r="H76" s="268"/>
@@ -72208,7 +72205,7 @@
     </row>
     <row r="77">
       <c r="A77" s="261" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="B77" s="127" t="s">
         <v>266</v>
@@ -72221,7 +72218,7 @@
       </c>
       <c r="E77" s="268"/>
       <c r="F77" s="255" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="G77" s="268"/>
       <c r="H77" s="268"/>
@@ -72245,7 +72242,7 @@
     </row>
     <row r="78">
       <c r="A78" s="261" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="B78" s="127" t="s">
         <v>266</v>
@@ -72258,7 +72255,7 @@
       </c>
       <c r="E78" s="268"/>
       <c r="F78" s="255" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="G78" s="268"/>
       <c r="H78" s="268"/>
@@ -72282,7 +72279,7 @@
     </row>
     <row r="79">
       <c r="A79" s="261" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="B79" s="127" t="s">
         <v>266</v>
@@ -72295,7 +72292,7 @@
       </c>
       <c r="E79" s="268"/>
       <c r="F79" s="255" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="G79" s="268"/>
       <c r="H79" s="268"/>
@@ -72319,7 +72316,7 @@
     </row>
     <row r="80">
       <c r="A80" s="261" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="B80" s="127" t="s">
         <v>266</v>
@@ -72332,7 +72329,7 @@
       </c>
       <c r="E80" s="268"/>
       <c r="F80" s="255" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="G80" s="268"/>
       <c r="H80" s="268"/>
@@ -72356,7 +72353,7 @@
     </row>
     <row r="81">
       <c r="A81" s="261" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="B81" s="127" t="s">
         <v>266</v>
@@ -72369,7 +72366,7 @@
       </c>
       <c r="E81" s="268"/>
       <c r="F81" s="255" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="G81" s="268"/>
       <c r="H81" s="268"/>
@@ -72393,7 +72390,7 @@
     </row>
     <row r="82">
       <c r="A82" s="261" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="B82" s="127" t="s">
         <v>266</v>
@@ -72406,7 +72403,7 @@
       </c>
       <c r="E82" s="262"/>
       <c r="F82" s="255" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="G82" s="262"/>
       <c r="H82" s="262"/>
@@ -72430,7 +72427,7 @@
     </row>
     <row r="83">
       <c r="A83" s="261" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="B83" s="127" t="s">
         <v>266</v>
@@ -72443,7 +72440,7 @@
       </c>
       <c r="E83" s="262"/>
       <c r="F83" s="255" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="G83" s="262"/>
       <c r="H83" s="262"/>
@@ -72467,7 +72464,7 @@
     </row>
     <row r="84">
       <c r="A84" s="261" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="B84" s="127" t="s">
         <v>266</v>
@@ -72480,7 +72477,7 @@
       </c>
       <c r="E84" s="262"/>
       <c r="F84" s="255" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="G84" s="262"/>
       <c r="H84" s="262"/>
@@ -72504,7 +72501,7 @@
     </row>
     <row r="85">
       <c r="A85" s="261" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="B85" s="127" t="s">
         <v>266</v>
@@ -72517,7 +72514,7 @@
       </c>
       <c r="E85" s="262"/>
       <c r="F85" s="255" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="G85" s="262"/>
       <c r="H85" s="262"/>
@@ -72541,7 +72538,7 @@
     </row>
     <row r="86">
       <c r="A86" s="261" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="B86" s="127" t="s">
         <v>266</v>
@@ -72554,7 +72551,7 @@
       </c>
       <c r="E86" s="262"/>
       <c r="F86" s="255" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="G86" s="262"/>
       <c r="H86" s="262"/>
@@ -72578,7 +72575,7 @@
     </row>
     <row r="87">
       <c r="A87" s="261" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="B87" s="127" t="s">
         <v>266</v>
@@ -72591,7 +72588,7 @@
       </c>
       <c r="E87" s="268"/>
       <c r="F87" s="255" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="G87" s="268"/>
       <c r="H87" s="268"/>
@@ -72615,7 +72612,7 @@
     </row>
     <row r="88">
       <c r="A88" s="261" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="B88" s="127" t="s">
         <v>266</v>
@@ -72628,7 +72625,7 @@
       </c>
       <c r="E88" s="268"/>
       <c r="F88" s="255" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="G88" s="268"/>
       <c r="H88" s="268"/>
@@ -72652,7 +72649,7 @@
     </row>
     <row r="89">
       <c r="A89" s="261" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="B89" s="127" t="s">
         <v>266</v>
@@ -72665,7 +72662,7 @@
       </c>
       <c r="E89" s="268"/>
       <c r="F89" s="255" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="G89" s="268"/>
       <c r="H89" s="268"/>
@@ -72689,7 +72686,7 @@
     </row>
     <row r="90">
       <c r="A90" s="261" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="B90" s="127" t="s">
         <v>266</v>
@@ -72702,7 +72699,7 @@
       </c>
       <c r="E90" s="268"/>
       <c r="F90" s="255" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="G90" s="268"/>
       <c r="H90" s="268"/>
@@ -72726,7 +72723,7 @@
     </row>
     <row r="91">
       <c r="A91" s="261" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="B91" s="127" t="s">
         <v>266</v>
@@ -72739,7 +72736,7 @@
       </c>
       <c r="E91" s="268"/>
       <c r="F91" s="255" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="G91" s="268"/>
       <c r="H91" s="268"/>
@@ -72763,7 +72760,7 @@
     </row>
     <row r="92">
       <c r="A92" s="261" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
       <c r="B92" s="127" t="s">
         <v>266</v>
@@ -72776,7 +72773,7 @@
       </c>
       <c r="E92" s="268"/>
       <c r="F92" s="255" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="G92" s="268"/>
       <c r="H92" s="268"/>
@@ -72800,7 +72797,7 @@
     </row>
     <row r="93">
       <c r="A93" s="261" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="B93" s="127" t="s">
         <v>266</v>
@@ -72813,7 +72810,7 @@
       </c>
       <c r="E93" s="262"/>
       <c r="F93" s="255" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="G93" s="262"/>
       <c r="H93" s="262"/>
@@ -72837,7 +72834,7 @@
     </row>
     <row r="94">
       <c r="A94" s="261" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="B94" s="127" t="s">
         <v>266</v>
@@ -72849,10 +72846,10 @@
         <v>1.0</v>
       </c>
       <c r="E94" s="269" t="s">
+        <v>2686</v>
+      </c>
+      <c r="F94" s="255" t="s">
         <v>2687</v>
-      </c>
-      <c r="F94" s="255" t="s">
-        <v>2688</v>
       </c>
       <c r="G94" s="262"/>
       <c r="H94" s="269">

--- a/parameter_database.xlsx
+++ b/parameter_database.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4507" uniqueCount="2575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4512" uniqueCount="2578">
   <si>
     <t>On-Board Parameters</t>
   </si>
@@ -5597,6 +5597,15 @@
   </si>
   <si>
     <t>Max rtc drift in seconds</t>
+  </si>
+  <si>
+    <t>OBDH-054</t>
+  </si>
+  <si>
+    <t>USE_GNSS_PPS</t>
+  </si>
+  <si>
+    <t>Use gnss pps for time synchronization</t>
   </si>
   <si>
     <t>Parameter Name (CubeADCS interface)</t>
@@ -55764,14 +55773,28 @@
       <c r="O56" s="22"/>
     </row>
     <row r="57">
-      <c r="A57" s="133"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="123"/>
+      <c r="A57" s="133" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C57" s="81" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D57" s="81">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="81" t="s">
+        <v>1856</v>
+      </c>
+      <c r="F57" s="123" t="s">
+        <v>1857</v>
+      </c>
       <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
+      <c r="H57" s="22" t="b">
+        <v>1</v>
+      </c>
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
       <c r="K57" s="66" t="b">
@@ -56064,13 +56087,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="135" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="F2" s="135" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="H2" s="96" t="s">
         <v>8</v>
@@ -56095,10 +56118,10 @@
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
       <c r="L3" s="137" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="M3" s="137" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="N3" s="137" t="s">
         <v>282</v>
@@ -56110,7 +56133,7 @@
         <v>284</v>
       </c>
       <c r="Q3" s="137" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
       <c r="R3" s="137" t="s">
         <v>1700</v>
@@ -56123,7 +56146,7 @@
       <c r="D4" s="139"/>
       <c r="E4" s="140"/>
       <c r="F4" s="141" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="G4" s="138"/>
       <c r="H4" s="138"/>
@@ -56140,7 +56163,7 @@
     </row>
     <row r="5">
       <c r="A5" s="143" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="B5" s="143" t="s">
         <v>246</v>
@@ -56152,16 +56175,16 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="144" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
       <c r="F5" s="108" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="G5" s="145" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="H5" s="145" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="I5" s="145">
         <v>1.0</v>
@@ -56194,7 +56217,7 @@
     </row>
     <row r="6">
       <c r="A6" s="143" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="B6" s="143" t="s">
         <v>246</v>
@@ -56206,10 +56229,10 @@
         <v>4.0</v>
       </c>
       <c r="E6" s="144" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="F6" s="108" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
       <c r="G6" s="146"/>
       <c r="H6" s="145"/>
@@ -56246,7 +56269,7 @@
     </row>
     <row r="7">
       <c r="A7" s="143" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="B7" s="143" t="s">
         <v>246</v>
@@ -56258,10 +56281,10 @@
         <v>4.0</v>
       </c>
       <c r="E7" s="144" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="F7" s="108" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="G7" s="146"/>
       <c r="H7" s="145"/>
@@ -56269,7 +56292,7 @@
         <v>1.0</v>
       </c>
       <c r="J7" s="145" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="K7" s="81" t="s">
         <v>1832</v>
@@ -56298,7 +56321,7 @@
     </row>
     <row r="8" ht="49.5" customHeight="1">
       <c r="A8" s="143" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="B8" s="143" t="s">
         <v>246</v>
@@ -56310,16 +56333,16 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="145" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
       <c r="F8" s="148" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="G8" s="145" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="H8" s="145" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
       <c r="I8" s="145">
         <v>1.0</v>
@@ -56352,25 +56375,25 @@
     </row>
     <row r="9">
       <c r="A9" s="143" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B9" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="145" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="D9" s="144">
         <v>1.0</v>
       </c>
       <c r="E9" s="145" t="s">
+        <v>1883</v>
+      </c>
+      <c r="F9" s="149" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H9" s="145" t="s">
         <v>1880</v>
-      </c>
-      <c r="F9" s="149" t="s">
-        <v>1881</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>1877</v>
       </c>
       <c r="I9" s="145">
         <v>1.0</v>
@@ -56403,7 +56426,7 @@
     </row>
     <row r="10" ht="30.75" customHeight="1">
       <c r="A10" s="143" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="B10" s="143" t="s">
         <v>246</v>
@@ -56415,16 +56438,16 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="145" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
       <c r="F10" s="149" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="G10" s="145" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="H10" s="145" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
       <c r="I10" s="145">
         <v>1.0</v>
@@ -56457,25 +56480,25 @@
     </row>
     <row r="11">
       <c r="A11" s="143" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B11" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C11" s="145" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="D11" s="144">
         <v>1.0</v>
       </c>
       <c r="E11" s="145" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
       <c r="F11" s="149" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="H11" s="145" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="I11" s="145"/>
       <c r="J11" s="146"/>
@@ -56506,7 +56529,7 @@
     </row>
     <row r="12">
       <c r="A12" s="143" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
       <c r="B12" s="143" t="s">
         <v>246</v>
@@ -56518,10 +56541,10 @@
         <v>4.0</v>
       </c>
       <c r="E12" s="145" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="F12" s="148" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="G12" s="145"/>
       <c r="H12" s="145"/>
@@ -56529,7 +56552,7 @@
         <v>1.0</v>
       </c>
       <c r="J12" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K12" s="81" t="s">
         <v>1832</v>
@@ -56558,7 +56581,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="143" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="B13" s="143" t="s">
         <v>246</v>
@@ -56570,10 +56593,10 @@
         <v>4.0</v>
       </c>
       <c r="E13" s="145" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="F13" s="148" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
       <c r="G13" s="145"/>
       <c r="H13" s="145"/>
@@ -56581,7 +56604,7 @@
         <v>1.0</v>
       </c>
       <c r="J13" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K13" s="81" t="s">
         <v>1832</v>
@@ -56610,7 +56633,7 @@
     </row>
     <row r="14">
       <c r="A14" s="143" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B14" s="143" t="s">
         <v>246</v>
@@ -56622,10 +56645,10 @@
         <v>4.0</v>
       </c>
       <c r="E14" s="145" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="F14" s="148" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
       <c r="G14" s="145"/>
       <c r="H14" s="145"/>
@@ -56633,7 +56656,7 @@
         <v>1.0</v>
       </c>
       <c r="J14" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K14" s="81" t="s">
         <v>1832</v>
@@ -56662,7 +56685,7 @@
     </row>
     <row r="15">
       <c r="A15" s="143" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="B15" s="143" t="s">
         <v>246</v>
@@ -56674,10 +56697,10 @@
         <v>4.0</v>
       </c>
       <c r="E15" s="145" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="F15" s="148" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
       <c r="G15" s="145"/>
       <c r="H15" s="145"/>
@@ -56685,7 +56708,7 @@
         <v>1.0</v>
       </c>
       <c r="J15" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K15" s="81" t="s">
         <v>1832</v>
@@ -56714,7 +56737,7 @@
     </row>
     <row r="16">
       <c r="A16" s="143" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B16" s="143" t="s">
         <v>246</v>
@@ -56726,10 +56749,10 @@
         <v>4.0</v>
       </c>
       <c r="E16" s="145" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="F16" s="148" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
       <c r="G16" s="145"/>
       <c r="H16" s="145"/>
@@ -56737,7 +56760,7 @@
         <v>1.0</v>
       </c>
       <c r="J16" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K16" s="81" t="s">
         <v>1832</v>
@@ -56766,7 +56789,7 @@
     </row>
     <row r="17">
       <c r="A17" s="143" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B17" s="143" t="s">
         <v>246</v>
@@ -56778,10 +56801,10 @@
         <v>4.0</v>
       </c>
       <c r="E17" s="145" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="F17" s="148" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
       <c r="G17" s="145"/>
       <c r="H17" s="145"/>
@@ -56789,7 +56812,7 @@
         <v>1.0</v>
       </c>
       <c r="J17" s="145" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="K17" s="81" t="s">
         <v>1832</v>
@@ -56843,7 +56866,7 @@
       <c r="D19" s="22"/>
       <c r="E19" s="157"/>
       <c r="F19" s="160" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="161"/>
@@ -56860,7 +56883,7 @@
     </row>
     <row r="20">
       <c r="A20" s="143" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="B20" s="143" t="s">
         <v>246</v>
@@ -56872,16 +56895,16 @@
         <v>1.0</v>
       </c>
       <c r="E20" s="145" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
       <c r="F20" s="148" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="H20" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I20" s="144">
         <v>1.0</v>
@@ -56914,25 +56937,25 @@
     </row>
     <row r="21">
       <c r="A21" s="143" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="B21" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C21" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D21" s="81">
         <v>1.0</v>
       </c>
       <c r="E21" s="145" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F21" s="148" t="s">
+        <v>1923</v>
+      </c>
+      <c r="H21" s="144" t="s">
         <v>1919</v>
-      </c>
-      <c r="F21" s="148" t="s">
-        <v>1920</v>
-      </c>
-      <c r="H21" s="144" t="s">
-        <v>1916</v>
       </c>
       <c r="I21" s="144">
         <v>1.0</v>
@@ -56965,25 +56988,25 @@
     </row>
     <row r="22">
       <c r="A22" s="143" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="B22" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C22" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D22" s="81">
         <v>1.0</v>
       </c>
       <c r="E22" s="145" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="F22" s="148" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="H22" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I22" s="144">
         <v>1.0</v>
@@ -57016,25 +57039,25 @@
     </row>
     <row r="23">
       <c r="A23" s="143" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="B23" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C23" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D23" s="81">
         <v>1.0</v>
       </c>
       <c r="E23" s="145" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="F23" s="148" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="H23" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I23" s="144">
         <v>1.0</v>
@@ -57067,25 +57090,25 @@
     </row>
     <row r="24">
       <c r="A24" s="143" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="B24" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C24" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D24" s="81">
         <v>1.0</v>
       </c>
       <c r="E24" s="145" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
       <c r="F24" s="148" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="H24" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I24" s="144">
         <v>1.0</v>
@@ -57118,25 +57141,25 @@
     </row>
     <row r="25">
       <c r="A25" s="143" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="B25" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C25" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D25" s="81">
         <v>1.0</v>
       </c>
       <c r="E25" s="145" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
       <c r="F25" s="148" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="H25" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I25" s="144">
         <v>1.0</v>
@@ -57169,25 +57192,25 @@
     </row>
     <row r="26">
       <c r="A26" s="143" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="B26" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C26" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D26" s="81">
         <v>1.0</v>
       </c>
       <c r="E26" s="145" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
       <c r="F26" s="148" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="H26" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I26" s="144">
         <v>1.0</v>
@@ -57220,25 +57243,25 @@
     </row>
     <row r="27">
       <c r="A27" s="143" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="B27" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C27" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D27" s="81">
         <v>1.0</v>
       </c>
       <c r="E27" s="145" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
       <c r="F27" s="148" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="H27" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I27" s="144">
         <v>1.0</v>
@@ -57271,25 +57294,25 @@
     </row>
     <row r="28">
       <c r="A28" s="143" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="B28" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C28" s="145" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="D28" s="81">
         <v>1.0</v>
       </c>
       <c r="E28" s="145" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="F28" s="148" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="H28" s="144" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
       <c r="I28" s="144">
         <v>1.0</v>
@@ -57347,7 +57370,7 @@
       <c r="D30" s="161"/>
       <c r="E30" s="161"/>
       <c r="F30" s="163" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="G30" s="157"/>
       <c r="H30" s="161"/>
@@ -57364,7 +57387,7 @@
     </row>
     <row r="31">
       <c r="A31" s="143" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="B31" s="143" t="s">
         <v>246</v>
@@ -57376,10 +57399,10 @@
         <v>2.0</v>
       </c>
       <c r="E31" s="145" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="F31" s="149" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="G31" s="146"/>
       <c r="H31" s="144"/>
@@ -57412,7 +57435,7 @@
     </row>
     <row r="32">
       <c r="A32" s="143" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="B32" s="143" t="s">
         <v>246</v>
@@ -57424,10 +57447,10 @@
         <v>2.0</v>
       </c>
       <c r="E32" s="145" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="F32" s="149" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="G32" s="146"/>
       <c r="H32" s="144"/>
@@ -57460,7 +57483,7 @@
     </row>
     <row r="33">
       <c r="A33" s="143" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
       <c r="B33" s="143" t="s">
         <v>246</v>
@@ -57472,10 +57495,10 @@
         <v>2.0</v>
       </c>
       <c r="E33" s="145" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="F33" s="149" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="G33" s="146"/>
       <c r="H33" s="144"/>
@@ -57508,7 +57531,7 @@
     </row>
     <row r="34">
       <c r="A34" s="143" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
       <c r="B34" s="143" t="s">
         <v>246</v>
@@ -57520,10 +57543,10 @@
         <v>2.0</v>
       </c>
       <c r="E34" s="145" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="F34" s="149" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="G34" s="146"/>
       <c r="H34" s="144"/>
@@ -57556,7 +57579,7 @@
     </row>
     <row r="35">
       <c r="A35" s="143" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
       <c r="B35" s="143" t="s">
         <v>246</v>
@@ -57568,10 +57591,10 @@
         <v>2.0</v>
       </c>
       <c r="E35" s="145" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="F35" s="149" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="G35" s="146"/>
       <c r="H35" s="144"/>
@@ -57604,7 +57627,7 @@
     </row>
     <row r="36">
       <c r="A36" s="143" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="B36" s="143" t="s">
         <v>246</v>
@@ -57616,10 +57639,10 @@
         <v>2.0</v>
       </c>
       <c r="E36" s="145" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="F36" s="149" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="G36" s="146"/>
       <c r="H36" s="144"/>
@@ -57652,7 +57675,7 @@
     </row>
     <row r="37">
       <c r="A37" s="143" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="B37" s="143" t="s">
         <v>246</v>
@@ -57664,10 +57687,10 @@
         <v>2.0</v>
       </c>
       <c r="E37" s="144" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="F37" s="108" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="G37" s="146"/>
       <c r="H37" s="144"/>
@@ -57700,7 +57723,7 @@
     </row>
     <row r="38">
       <c r="A38" s="143" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="143" t="s">
         <v>246</v>
@@ -57712,10 +57735,10 @@
         <v>2.0</v>
       </c>
       <c r="E38" s="144" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="G38" s="146"/>
       <c r="H38" s="144"/>
@@ -57748,7 +57771,7 @@
     </row>
     <row r="39">
       <c r="A39" s="143" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="B39" s="143" t="s">
         <v>246</v>
@@ -57760,10 +57783,10 @@
         <v>2.0</v>
       </c>
       <c r="E39" s="144" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="F39" s="108" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="G39" s="146"/>
       <c r="H39" s="144"/>
@@ -57796,7 +57819,7 @@
     </row>
     <row r="40">
       <c r="A40" s="143" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="B40" s="143" t="s">
         <v>246</v>
@@ -57808,10 +57831,10 @@
         <v>2.0</v>
       </c>
       <c r="E40" s="144" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="F40" s="108" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="G40" s="146"/>
       <c r="H40" s="144"/>
@@ -57844,7 +57867,7 @@
     </row>
     <row r="41">
       <c r="A41" s="143" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B41" s="143" t="s">
         <v>246</v>
@@ -57856,10 +57879,10 @@
         <v>2.0</v>
       </c>
       <c r="E41" s="144" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="G41" s="146"/>
       <c r="H41" s="144"/>
@@ -57892,7 +57915,7 @@
     </row>
     <row r="42">
       <c r="A42" s="143" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="B42" s="143" t="s">
         <v>246</v>
@@ -57904,10 +57927,10 @@
         <v>2.0</v>
       </c>
       <c r="E42" s="144" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="F42" s="108" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="G42" s="146"/>
       <c r="H42" s="144"/>
@@ -57940,7 +57963,7 @@
     </row>
     <row r="43">
       <c r="A43" s="143" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
       <c r="B43" s="143" t="s">
         <v>246</v>
@@ -57952,10 +57975,10 @@
         <v>2.0</v>
       </c>
       <c r="E43" s="144" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="F43" s="108" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="G43" s="146"/>
       <c r="H43" s="144"/>
@@ -57988,7 +58011,7 @@
     </row>
     <row r="44">
       <c r="A44" s="143" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
       <c r="B44" s="143" t="s">
         <v>246</v>
@@ -58000,10 +58023,10 @@
         <v>2.0</v>
       </c>
       <c r="E44" s="144" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="F44" s="108" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="G44" s="146"/>
       <c r="H44" s="144"/>
@@ -58036,7 +58059,7 @@
     </row>
     <row r="45">
       <c r="A45" s="143" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
       <c r="B45" s="143" t="s">
         <v>246</v>
@@ -58048,10 +58071,10 @@
         <v>2.0</v>
       </c>
       <c r="E45" s="144" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="F45" s="108" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="G45" s="146"/>
       <c r="H45" s="144"/>
@@ -58084,7 +58107,7 @@
     </row>
     <row r="46">
       <c r="A46" s="143" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
       <c r="B46" s="143" t="s">
         <v>246</v>
@@ -58096,10 +58119,10 @@
         <v>2.0</v>
       </c>
       <c r="E46" s="144" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="F46" s="108" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="G46" s="146"/>
       <c r="H46" s="144"/>
@@ -58132,7 +58155,7 @@
     </row>
     <row r="47">
       <c r="A47" s="143" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="B47" s="143" t="s">
         <v>246</v>
@@ -58144,10 +58167,10 @@
         <v>2.0</v>
       </c>
       <c r="E47" s="144" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="F47" s="108" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="G47" s="146"/>
       <c r="H47" s="144"/>
@@ -58180,7 +58203,7 @@
     </row>
     <row r="48">
       <c r="A48" s="143" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="B48" s="143" t="s">
         <v>246</v>
@@ -58192,10 +58215,10 @@
         <v>2.0</v>
       </c>
       <c r="E48" s="144" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="F48" s="108" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="G48" s="146"/>
       <c r="H48" s="144"/>
@@ -58228,7 +58251,7 @@
     </row>
     <row r="49">
       <c r="A49" s="143" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="B49" s="143" t="s">
         <v>246</v>
@@ -58240,10 +58263,10 @@
         <v>2.0</v>
       </c>
       <c r="E49" s="144" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="F49" s="108" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="G49" s="146"/>
       <c r="H49" s="144"/>
@@ -58276,7 +58299,7 @@
     </row>
     <row r="50">
       <c r="A50" s="143" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="B50" s="143" t="s">
         <v>246</v>
@@ -58286,10 +58309,10 @@
       </c>
       <c r="D50" s="144"/>
       <c r="E50" s="144" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="F50" s="108" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="G50" s="146"/>
       <c r="H50" s="144"/>
@@ -58322,7 +58345,7 @@
     </row>
     <row r="51">
       <c r="A51" s="143" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="B51" s="143" t="s">
         <v>246</v>
@@ -58332,10 +58355,10 @@
       </c>
       <c r="D51" s="144"/>
       <c r="E51" s="144" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="F51" s="108" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="G51" s="146"/>
       <c r="H51" s="144"/>
@@ -58368,7 +58391,7 @@
     </row>
     <row r="52">
       <c r="A52" s="143" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="B52" s="143" t="s">
         <v>246</v>
@@ -58378,10 +58401,10 @@
       </c>
       <c r="D52" s="144"/>
       <c r="E52" s="144" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="F52" s="108" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="G52" s="146"/>
       <c r="H52" s="144"/>
@@ -58459,7 +58482,7 @@
       <c r="D55" s="161"/>
       <c r="E55" s="159"/>
       <c r="F55" s="164" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="G55" s="157"/>
       <c r="H55" s="161"/>
@@ -58476,7 +58499,7 @@
     </row>
     <row r="56">
       <c r="A56" s="143" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B56" s="143" t="s">
         <v>246</v>
@@ -58488,16 +58511,16 @@
         <v>1.0</v>
       </c>
       <c r="E56" s="145" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F56" s="149" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="G56" s="145" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H56" s="144" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="I56" s="144"/>
       <c r="J56" s="144"/>
@@ -58528,7 +58551,7 @@
     </row>
     <row r="57" ht="69.75" customHeight="1">
       <c r="A57" s="143" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B57" s="143" t="s">
         <v>246</v>
@@ -58540,16 +58563,16 @@
         <v>1.0</v>
       </c>
       <c r="E57" s="145" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="F57" s="149" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G57" s="165" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="H57" s="144" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I57" s="144"/>
       <c r="J57" s="144"/>
@@ -58580,25 +58603,25 @@
     </row>
     <row r="58">
       <c r="A58" s="143" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="B58" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C58" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D58" s="144">
         <v>1.0</v>
       </c>
       <c r="E58" s="145" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="F58" s="149" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="H58" s="144" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="I58" s="144"/>
       <c r="J58" s="144"/>
@@ -58629,25 +58652,25 @@
     </row>
     <row r="59">
       <c r="A59" s="143" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B59" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C59" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D59" s="144">
         <v>1.0</v>
       </c>
       <c r="E59" s="145" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="F59" s="149" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
       <c r="H59" s="144" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="I59" s="144"/>
       <c r="J59" s="144"/>
@@ -58678,25 +58701,25 @@
     </row>
     <row r="60">
       <c r="A60" s="143" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="B60" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C60" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D60" s="144">
         <v>1.0</v>
       </c>
       <c r="E60" s="145" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
       <c r="F60" s="149" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="H60" s="144" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I60" s="144"/>
       <c r="J60" s="144"/>
@@ -58727,25 +58750,25 @@
     </row>
     <row r="61">
       <c r="A61" s="143" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="B61" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C61" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D61" s="144">
         <v>1.0</v>
       </c>
       <c r="E61" s="145" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
       <c r="F61" s="149" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="H61" s="144" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="I61" s="144"/>
       <c r="J61" s="144"/>
@@ -58776,25 +58799,25 @@
     </row>
     <row r="62">
       <c r="A62" s="143" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="B62" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C62" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D62" s="144">
         <v>1.0</v>
       </c>
       <c r="E62" s="145" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
       <c r="F62" s="149" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="H62" s="144" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="I62" s="144"/>
       <c r="J62" s="144"/>
@@ -58825,25 +58848,25 @@
     </row>
     <row r="63">
       <c r="A63" s="143" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="B63" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C63" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D63" s="144">
         <v>1.0</v>
       </c>
       <c r="E63" s="145" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
       <c r="F63" s="149" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="H63" s="144" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="I63" s="144"/>
       <c r="J63" s="144"/>
@@ -58874,25 +58897,25 @@
     </row>
     <row r="64">
       <c r="A64" s="143" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="B64" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C64" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D64" s="144">
         <v>1.0</v>
       </c>
       <c r="E64" s="145" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
       <c r="F64" s="149" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="H64" s="144" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
       <c r="I64" s="144"/>
       <c r="J64" s="144"/>
@@ -58923,25 +58946,25 @@
     </row>
     <row r="65">
       <c r="A65" s="143" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="B65" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C65" s="145" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="D65" s="144">
         <v>1.0</v>
       </c>
       <c r="E65" s="145" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
       <c r="F65" s="149" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="H65" s="144" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="I65" s="144"/>
       <c r="J65" s="144"/>
@@ -58972,7 +58995,7 @@
     </row>
     <row r="66">
       <c r="A66" s="143" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="B66" s="143" t="s">
         <v>246</v>
@@ -58984,16 +59007,16 @@
         <v>2.0</v>
       </c>
       <c r="E66" s="145" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
       <c r="F66" s="149" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="G66" s="146"/>
       <c r="H66" s="144"/>
       <c r="I66" s="144"/>
       <c r="J66" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K66" s="81" t="s">
         <v>1832</v>
@@ -59022,7 +59045,7 @@
     </row>
     <row r="67">
       <c r="A67" s="143" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
       <c r="B67" s="143" t="s">
         <v>246</v>
@@ -59034,16 +59057,16 @@
         <v>2.0</v>
       </c>
       <c r="E67" s="145" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="F67" s="149" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="G67" s="146"/>
       <c r="H67" s="144"/>
       <c r="I67" s="144"/>
       <c r="J67" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K67" s="81" t="s">
         <v>1832</v>
@@ -59072,7 +59095,7 @@
     </row>
     <row r="68">
       <c r="A68" s="143" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
       <c r="B68" s="143" t="s">
         <v>246</v>
@@ -59084,16 +59107,16 @@
         <v>2.0</v>
       </c>
       <c r="E68" s="145" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="F68" s="149" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="G68" s="146"/>
       <c r="H68" s="144"/>
       <c r="I68" s="144"/>
       <c r="J68" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K68" s="81" t="s">
         <v>1832</v>
@@ -59122,7 +59145,7 @@
     </row>
     <row r="69">
       <c r="A69" s="143" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
       <c r="B69" s="143" t="s">
         <v>246</v>
@@ -59134,16 +59157,16 @@
         <v>2.0</v>
       </c>
       <c r="E69" s="145" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="F69" s="149" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="G69" s="146"/>
       <c r="H69" s="144"/>
       <c r="I69" s="144"/>
       <c r="J69" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K69" s="81" t="s">
         <v>1832</v>
@@ -59172,7 +59195,7 @@
     </row>
     <row r="70">
       <c r="A70" s="143" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="B70" s="143" t="s">
         <v>246</v>
@@ -59184,16 +59207,16 @@
         <v>2.0</v>
       </c>
       <c r="E70" s="145" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="F70" s="149" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="G70" s="146"/>
       <c r="H70" s="144"/>
       <c r="I70" s="144"/>
       <c r="J70" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K70" s="81" t="s">
         <v>1832</v>
@@ -59222,7 +59245,7 @@
     </row>
     <row r="71">
       <c r="A71" s="143" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
       <c r="B71" s="143" t="s">
         <v>246</v>
@@ -59234,16 +59257,16 @@
         <v>2.0</v>
       </c>
       <c r="E71" s="145" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="F71" s="149" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="G71" s="146"/>
       <c r="H71" s="144"/>
       <c r="I71" s="144"/>
       <c r="J71" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K71" s="81" t="s">
         <v>1832</v>
@@ -59272,7 +59295,7 @@
     </row>
     <row r="72">
       <c r="A72" s="143" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
       <c r="B72" s="143" t="s">
         <v>246</v>
@@ -59284,16 +59307,16 @@
         <v>2.0</v>
       </c>
       <c r="E72" s="145" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="F72" s="149" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="G72" s="146"/>
       <c r="H72" s="144"/>
       <c r="I72" s="144"/>
       <c r="J72" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K72" s="81" t="s">
         <v>1832</v>
@@ -59322,7 +59345,7 @@
     </row>
     <row r="73">
       <c r="A73" s="143" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
       <c r="B73" s="143" t="s">
         <v>246</v>
@@ -59334,16 +59357,16 @@
         <v>2.0</v>
       </c>
       <c r="E73" s="145" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="F73" s="149" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="G73" s="146"/>
       <c r="H73" s="144"/>
       <c r="I73" s="144"/>
       <c r="J73" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K73" s="81" t="s">
         <v>1832</v>
@@ -59372,7 +59395,7 @@
     </row>
     <row r="74">
       <c r="A74" s="143" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B74" s="143" t="s">
         <v>246</v>
@@ -59384,16 +59407,16 @@
         <v>2.0</v>
       </c>
       <c r="E74" s="145" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="F74" s="149" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="G74" s="146"/>
       <c r="H74" s="144"/>
       <c r="I74" s="144"/>
       <c r="J74" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K74" s="81" t="s">
         <v>1832</v>
@@ -59422,7 +59445,7 @@
     </row>
     <row r="75">
       <c r="A75" s="143" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="B75" s="143" t="s">
         <v>246</v>
@@ -59434,16 +59457,16 @@
         <v>2.0</v>
       </c>
       <c r="E75" s="145" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="F75" s="149" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="G75" s="146"/>
       <c r="H75" s="144"/>
       <c r="I75" s="144"/>
       <c r="J75" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K75" s="81" t="s">
         <v>1832</v>
@@ -59472,7 +59495,7 @@
     </row>
     <row r="76">
       <c r="A76" s="143" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="B76" s="143" t="s">
         <v>246</v>
@@ -59484,16 +59507,16 @@
         <v>2.0</v>
       </c>
       <c r="E76" s="145" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="F76" s="149" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="G76" s="146"/>
       <c r="H76" s="144"/>
       <c r="I76" s="144"/>
       <c r="J76" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K76" s="81" t="s">
         <v>1832</v>
@@ -59522,7 +59545,7 @@
     </row>
     <row r="77">
       <c r="A77" s="143" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="B77" s="143" t="s">
         <v>246</v>
@@ -59534,16 +59557,16 @@
         <v>2.0</v>
       </c>
       <c r="E77" s="145" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
       <c r="F77" s="149" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="G77" s="146"/>
       <c r="H77" s="144"/>
       <c r="I77" s="144"/>
       <c r="J77" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K77" s="81" t="s">
         <v>1832</v>
@@ -59572,7 +59595,7 @@
     </row>
     <row r="78">
       <c r="A78" s="143" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="B78" s="143" t="s">
         <v>246</v>
@@ -59584,16 +59607,16 @@
         <v>2.0</v>
       </c>
       <c r="E78" s="145" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="F78" s="149" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="G78" s="146"/>
       <c r="H78" s="144"/>
       <c r="I78" s="144"/>
       <c r="J78" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K78" s="81" t="s">
         <v>1832</v>
@@ -59622,7 +59645,7 @@
     </row>
     <row r="79">
       <c r="A79" s="143" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
       <c r="B79" s="143" t="s">
         <v>246</v>
@@ -59634,16 +59657,16 @@
         <v>2.0</v>
       </c>
       <c r="E79" s="145" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="F79" s="149" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="G79" s="146"/>
       <c r="H79" s="144"/>
       <c r="I79" s="144"/>
       <c r="J79" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K79" s="81" t="s">
         <v>1832</v>
@@ -59672,7 +59695,7 @@
     </row>
     <row r="80">
       <c r="A80" s="143" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="B80" s="143" t="s">
         <v>246</v>
@@ -59684,16 +59707,16 @@
         <v>2.0</v>
       </c>
       <c r="E80" s="145" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="F80" s="149" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="G80" s="146"/>
       <c r="H80" s="144"/>
       <c r="I80" s="144"/>
       <c r="J80" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K80" s="81" t="s">
         <v>1832</v>
@@ -59747,7 +59770,7 @@
       <c r="D82" s="166"/>
       <c r="E82" s="159"/>
       <c r="F82" s="164" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
       <c r="G82" s="157"/>
       <c r="H82" s="159"/>
@@ -59764,7 +59787,7 @@
     </row>
     <row r="83">
       <c r="A83" s="143" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B83" s="143" t="s">
         <v>246</v>
@@ -59776,16 +59799,16 @@
         <v>1.0</v>
       </c>
       <c r="E83" s="145" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="F83" s="149" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
       <c r="G83" s="165" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="H83" s="144" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="I83" s="144"/>
       <c r="J83" s="144"/>
@@ -59816,25 +59839,25 @@
     </row>
     <row r="84" ht="39.75" customHeight="1">
       <c r="A84" s="143" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
       <c r="B84" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C84" s="145" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D84" s="144">
         <v>1.0</v>
       </c>
       <c r="E84" s="144" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F84" s="149" t="s">
+        <v>2105</v>
+      </c>
+      <c r="H84" s="144" t="s">
         <v>2101</v>
-      </c>
-      <c r="F84" s="149" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H84" s="144" t="s">
-        <v>2098</v>
       </c>
       <c r="I84" s="144"/>
       <c r="J84" s="144"/>
@@ -59865,25 +59888,25 @@
     </row>
     <row r="85">
       <c r="A85" s="143" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B85" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C85" s="145" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D85" s="144">
         <v>1.0</v>
       </c>
       <c r="E85" s="144" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="F85" s="149" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="H85" s="144" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="I85" s="144"/>
       <c r="J85" s="144"/>
@@ -59914,25 +59937,25 @@
     </row>
     <row r="86">
       <c r="A86" s="143" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
       <c r="B86" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C86" s="145" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="D86" s="144">
         <v>1.0</v>
       </c>
       <c r="E86" s="144" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="F86" s="149" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="H86" s="144" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="I86" s="144"/>
       <c r="J86" s="144"/>
@@ -59963,7 +59986,7 @@
     </row>
     <row r="87">
       <c r="A87" s="143" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
       <c r="B87" s="143" t="s">
         <v>246</v>
@@ -59975,10 +59998,10 @@
         <v>1.0</v>
       </c>
       <c r="E87" s="144" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="F87" s="149" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="G87" s="165"/>
       <c r="H87" s="144"/>
@@ -60013,7 +60036,7 @@
     </row>
     <row r="88">
       <c r="A88" s="143" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
       <c r="B88" s="143" t="s">
         <v>246</v>
@@ -60025,10 +60048,10 @@
         <v>1.0</v>
       </c>
       <c r="E88" s="144" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="F88" s="149" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="G88" s="165"/>
       <c r="H88" s="144"/>
@@ -60063,7 +60086,7 @@
     </row>
     <row r="89">
       <c r="A89" s="143" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
       <c r="B89" s="143" t="s">
         <v>246</v>
@@ -60075,10 +60098,10 @@
         <v>1.0</v>
       </c>
       <c r="E89" s="144" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="F89" s="149" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="G89" s="165"/>
       <c r="H89" s="144"/>
@@ -60113,7 +60136,7 @@
     </row>
     <row r="90">
       <c r="A90" s="143" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
       <c r="B90" s="143" t="s">
         <v>246</v>
@@ -60125,10 +60148,10 @@
         <v>1.0</v>
       </c>
       <c r="E90" s="144" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="F90" s="149" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="G90" s="165"/>
       <c r="H90" s="144"/>
@@ -60163,7 +60186,7 @@
     </row>
     <row r="91">
       <c r="A91" s="143" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="B91" s="143" t="s">
         <v>246</v>
@@ -60175,10 +60198,10 @@
         <v>2.0</v>
       </c>
       <c r="E91" s="144" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="F91" s="108" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="G91" s="146"/>
       <c r="H91" s="144"/>
@@ -60213,7 +60236,7 @@
     </row>
     <row r="92">
       <c r="A92" s="143" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
       <c r="B92" s="143" t="s">
         <v>246</v>
@@ -60225,10 +60248,10 @@
         <v>2.0</v>
       </c>
       <c r="E92" s="144" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="F92" s="108" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="G92" s="146"/>
       <c r="H92" s="144"/>
@@ -60263,7 +60286,7 @@
     </row>
     <row r="93">
       <c r="A93" s="143" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
       <c r="B93" s="143" t="s">
         <v>246</v>
@@ -60275,10 +60298,10 @@
         <v>2.0</v>
       </c>
       <c r="E93" s="144" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="F93" s="108" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="G93" s="146"/>
       <c r="H93" s="144"/>
@@ -60313,7 +60336,7 @@
     </row>
     <row r="94">
       <c r="A94" s="143" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
       <c r="B94" s="143" t="s">
         <v>246</v>
@@ -60325,10 +60348,10 @@
         <v>2.0</v>
       </c>
       <c r="E94" s="144" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="F94" s="108" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="G94" s="146"/>
       <c r="H94" s="144"/>
@@ -60363,7 +60386,7 @@
     </row>
     <row r="95">
       <c r="A95" s="143" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
       <c r="B95" s="143" t="s">
         <v>246</v>
@@ -60375,10 +60398,10 @@
         <v>2.0</v>
       </c>
       <c r="E95" s="144" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="F95" s="108" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="G95" s="146"/>
       <c r="H95" s="144"/>
@@ -60413,7 +60436,7 @@
     </row>
     <row r="96">
       <c r="A96" s="143" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
       <c r="B96" s="143" t="s">
         <v>246</v>
@@ -60425,10 +60448,10 @@
         <v>2.0</v>
       </c>
       <c r="E96" s="144" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="F96" s="108" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="G96" s="146"/>
       <c r="H96" s="144"/>
@@ -60463,7 +60486,7 @@
     </row>
     <row r="97">
       <c r="A97" s="143" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
       <c r="B97" s="143" t="s">
         <v>246</v>
@@ -60475,10 +60498,10 @@
         <v>2.0</v>
       </c>
       <c r="E97" s="144" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="F97" s="108" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="G97" s="146"/>
       <c r="H97" s="144"/>
@@ -60513,7 +60536,7 @@
     </row>
     <row r="98">
       <c r="A98" s="143" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
       <c r="B98" s="143" t="s">
         <v>246</v>
@@ -60525,10 +60548,10 @@
         <v>2.0</v>
       </c>
       <c r="E98" s="144" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="F98" s="108" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="G98" s="146"/>
       <c r="H98" s="144"/>
@@ -60563,7 +60586,7 @@
     </row>
     <row r="99">
       <c r="A99" s="143" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
       <c r="B99" s="143" t="s">
         <v>246</v>
@@ -60575,10 +60598,10 @@
         <v>2.0</v>
       </c>
       <c r="E99" s="144" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="F99" s="108" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="G99" s="146"/>
       <c r="H99" s="144"/>
@@ -60613,7 +60636,7 @@
     </row>
     <row r="100">
       <c r="A100" s="143" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B100" s="143" t="s">
         <v>246</v>
@@ -60625,10 +60648,10 @@
         <v>2.0</v>
       </c>
       <c r="E100" s="144" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="F100" s="108" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
       <c r="G100" s="146"/>
       <c r="H100" s="144"/>
@@ -60663,7 +60686,7 @@
     </row>
     <row r="101">
       <c r="A101" s="143" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B101" s="143" t="s">
         <v>246</v>
@@ -60675,10 +60698,10 @@
         <v>2.0</v>
       </c>
       <c r="E101" s="144" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="F101" s="108" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
       <c r="G101" s="146"/>
       <c r="H101" s="144"/>
@@ -60713,7 +60736,7 @@
     </row>
     <row r="102">
       <c r="A102" s="143" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B102" s="143" t="s">
         <v>246</v>
@@ -60725,10 +60748,10 @@
         <v>2.0</v>
       </c>
       <c r="E102" s="144" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="F102" s="108" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
       <c r="G102" s="146"/>
       <c r="H102" s="144"/>
@@ -60788,7 +60811,7 @@
       <c r="D104" s="166"/>
       <c r="E104" s="159"/>
       <c r="F104" s="164" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="G104" s="157"/>
       <c r="H104" s="157"/>
@@ -60805,7 +60828,7 @@
     </row>
     <row r="105">
       <c r="A105" s="143" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="B105" s="143" t="s">
         <v>246</v>
@@ -60817,10 +60840,10 @@
         <v>4.0</v>
       </c>
       <c r="E105" s="145" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
       <c r="F105" s="149" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="G105" s="146"/>
       <c r="H105" s="144"/>
@@ -60855,7 +60878,7 @@
     </row>
     <row r="106">
       <c r="A106" s="143" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="B106" s="143" t="s">
         <v>246</v>
@@ -60867,10 +60890,10 @@
         <v>4.0</v>
       </c>
       <c r="E106" s="145" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
       <c r="F106" s="149" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="G106" s="146"/>
       <c r="H106" s="144"/>
@@ -60905,7 +60928,7 @@
     </row>
     <row r="107">
       <c r="A107" s="143" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="B107" s="143" t="s">
         <v>246</v>
@@ -60917,10 +60940,10 @@
         <v>4.0</v>
       </c>
       <c r="E107" s="145" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
       <c r="F107" s="149" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="G107" s="146"/>
       <c r="H107" s="144"/>
@@ -60955,7 +60978,7 @@
     </row>
     <row r="108">
       <c r="A108" s="143" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="B108" s="143" t="s">
         <v>246</v>
@@ -60967,10 +60990,10 @@
         <v>4.0</v>
       </c>
       <c r="E108" s="145" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
       <c r="F108" s="149" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="G108" s="146"/>
       <c r="H108" s="144"/>
@@ -61005,7 +61028,7 @@
     </row>
     <row r="109">
       <c r="A109" s="143" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="B109" s="143" t="s">
         <v>246</v>
@@ -61017,10 +61040,10 @@
         <v>4.0</v>
       </c>
       <c r="E109" s="145" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
       <c r="F109" s="149" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="G109" s="146"/>
       <c r="H109" s="144"/>
@@ -61055,7 +61078,7 @@
     </row>
     <row r="110">
       <c r="A110" s="143" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="B110" s="143" t="s">
         <v>246</v>
@@ -61067,10 +61090,10 @@
         <v>4.0</v>
       </c>
       <c r="E110" s="145" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
       <c r="F110" s="149" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="G110" s="146"/>
       <c r="H110" s="144"/>
@@ -61105,7 +61128,7 @@
     </row>
     <row r="111">
       <c r="A111" s="143" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="B111" s="143" t="s">
         <v>246</v>
@@ -61117,10 +61140,10 @@
         <v>4.0</v>
       </c>
       <c r="E111" s="145" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
       <c r="F111" s="149" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="G111" s="146"/>
       <c r="H111" s="144"/>
@@ -61182,7 +61205,7 @@
       <c r="D113" s="166"/>
       <c r="E113" s="159"/>
       <c r="F113" s="164" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="G113" s="157"/>
       <c r="H113" s="157"/>
@@ -61199,7 +61222,7 @@
     </row>
     <row r="114">
       <c r="A114" s="143" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
       <c r="B114" s="143" t="s">
         <v>246</v>
@@ -61211,16 +61234,16 @@
         <v>8.0</v>
       </c>
       <c r="E114" s="145" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="F114" s="149" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="G114" s="145" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
       <c r="H114" s="144" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="I114" s="144">
         <v>1.0</v>
@@ -61253,7 +61276,7 @@
     </row>
     <row r="115">
       <c r="A115" s="143" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="B115" s="143" t="s">
         <v>246</v>
@@ -61265,10 +61288,10 @@
         <v>2.0</v>
       </c>
       <c r="E115" s="144" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
       <c r="F115" s="108" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="G115" s="146"/>
       <c r="H115" s="144"/>
@@ -61303,7 +61326,7 @@
     </row>
     <row r="116">
       <c r="A116" s="143" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="B116" s="143" t="s">
         <v>246</v>
@@ -61315,10 +61338,10 @@
         <v>4.0</v>
       </c>
       <c r="E116" s="144" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
       <c r="F116" s="108" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="G116" s="146"/>
       <c r="H116" s="144"/>
@@ -61355,7 +61378,7 @@
     </row>
     <row r="117">
       <c r="A117" s="143" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="B117" s="143" t="s">
         <v>246</v>
@@ -61367,10 +61390,10 @@
         <v>2.0</v>
       </c>
       <c r="E117" s="144" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
       <c r="F117" s="108" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="G117" s="146"/>
       <c r="H117" s="144"/>
@@ -61378,7 +61401,7 @@
         <v>1.0</v>
       </c>
       <c r="J117" s="144" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="K117" s="81" t="s">
         <v>1832</v>
@@ -61407,7 +61430,7 @@
     </row>
     <row r="118">
       <c r="A118" s="143" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
       <c r="B118" s="143" t="s">
         <v>246</v>
@@ -61419,10 +61442,10 @@
         <v>4.0</v>
       </c>
       <c r="E118" s="145" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="F118" s="149" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="G118" s="146"/>
       <c r="H118" s="144"/>
@@ -61457,7 +61480,7 @@
     </row>
     <row r="119">
       <c r="A119" s="143" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
       <c r="B119" s="143" t="s">
         <v>246</v>
@@ -61469,10 +61492,10 @@
         <v>1.0</v>
       </c>
       <c r="E119" s="145" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="F119" s="149" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="G119" s="146"/>
       <c r="H119" s="144"/>
@@ -61507,7 +61530,7 @@
     </row>
     <row r="120">
       <c r="A120" s="143" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
       <c r="B120" s="143" t="s">
         <v>246</v>
@@ -61519,10 +61542,10 @@
         <v>1.0</v>
       </c>
       <c r="E120" s="145" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="F120" s="149" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="G120" s="146"/>
       <c r="H120" s="144"/>
@@ -61557,7 +61580,7 @@
     </row>
     <row r="121">
       <c r="A121" s="143" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
       <c r="B121" s="143" t="s">
         <v>246</v>
@@ -61569,10 +61592,10 @@
         <v>1.0</v>
       </c>
       <c r="E121" s="145" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="F121" s="149" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="G121" s="146"/>
       <c r="H121" s="144"/>
@@ -61607,7 +61630,7 @@
     </row>
     <row r="122">
       <c r="A122" s="143" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
       <c r="B122" s="143" t="s">
         <v>246</v>
@@ -61619,10 +61642,10 @@
         <v>1.0</v>
       </c>
       <c r="E122" s="145" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="F122" s="149" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="G122" s="146"/>
       <c r="H122" s="144"/>
@@ -61682,7 +61705,7 @@
       <c r="D124" s="161"/>
       <c r="E124" s="161"/>
       <c r="F124" s="163" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
       <c r="G124" s="157"/>
       <c r="H124" s="161"/>
@@ -61699,22 +61722,22 @@
     </row>
     <row r="125">
       <c r="A125" s="143" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="B125" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C125" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D125" s="144">
         <v>8.0</v>
       </c>
       <c r="E125" s="144" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
       <c r="F125" s="108" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="G125" s="146"/>
       <c r="H125" s="144"/>
@@ -61747,22 +61770,22 @@
     </row>
     <row r="126">
       <c r="A126" s="143" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="B126" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C126" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D126" s="144">
         <v>8.0</v>
       </c>
       <c r="E126" s="144" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
       <c r="F126" s="108" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="G126" s="146"/>
       <c r="H126" s="144"/>
@@ -61795,22 +61818,22 @@
     </row>
     <row r="127">
       <c r="A127" s="143" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="B127" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C127" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D127" s="144">
         <v>8.0</v>
       </c>
       <c r="E127" s="144" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
       <c r="F127" s="108" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="G127" s="146"/>
       <c r="H127" s="144"/>
@@ -61843,22 +61866,22 @@
     </row>
     <row r="128">
       <c r="A128" s="143" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="B128" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C128" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D128" s="144">
         <v>8.0</v>
       </c>
       <c r="E128" s="144" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="F128" s="108" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="G128" s="146"/>
       <c r="H128" s="144"/>
@@ -61891,22 +61914,22 @@
     </row>
     <row r="129">
       <c r="A129" s="143" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="B129" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C129" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D129" s="144">
         <v>8.0</v>
       </c>
       <c r="E129" s="144" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
       <c r="F129" s="108" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="G129" s="146"/>
       <c r="H129" s="144"/>
@@ -61939,22 +61962,22 @@
     </row>
     <row r="130">
       <c r="A130" s="143" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="B130" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C130" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D130" s="144">
         <v>8.0</v>
       </c>
       <c r="E130" s="144" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
       <c r="F130" s="108" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="G130" s="146"/>
       <c r="H130" s="144"/>
@@ -61987,22 +62010,22 @@
     </row>
     <row r="131">
       <c r="A131" s="143" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="B131" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C131" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D131" s="144">
         <v>8.0</v>
       </c>
       <c r="E131" s="144" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
       <c r="F131" s="108" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="G131" s="146"/>
       <c r="H131" s="144"/>
@@ -62035,22 +62058,22 @@
     </row>
     <row r="132">
       <c r="A132" s="143" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="B132" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C132" s="144" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="D132" s="144">
         <v>8.0</v>
       </c>
       <c r="E132" s="144" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="F132" s="108" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="G132" s="146"/>
       <c r="H132" s="144"/>
@@ -62108,7 +62131,7 @@
       <c r="D134" s="161"/>
       <c r="E134" s="159"/>
       <c r="F134" s="164" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="G134" s="157"/>
       <c r="H134" s="159"/>
@@ -62125,7 +62148,7 @@
     </row>
     <row r="135">
       <c r="A135" s="143" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="B135" s="143" t="s">
         <v>246</v>
@@ -62137,10 +62160,10 @@
         <v>2.0</v>
       </c>
       <c r="E135" s="145" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
       <c r="F135" s="149" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="G135" s="146"/>
       <c r="H135" s="145"/>
@@ -62177,7 +62200,7 @@
     </row>
     <row r="136">
       <c r="A136" s="143" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="B136" s="143" t="s">
         <v>246</v>
@@ -62189,10 +62212,10 @@
         <v>2.0</v>
       </c>
       <c r="E136" s="145" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
       <c r="F136" s="149" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="G136" s="146"/>
       <c r="H136" s="145"/>
@@ -62200,7 +62223,7 @@
         <v>1.0</v>
       </c>
       <c r="J136" s="145" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="K136" s="81" t="s">
         <v>1832</v>
@@ -62229,7 +62252,7 @@
     </row>
     <row r="137">
       <c r="A137" s="143" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="B137" s="143" t="s">
         <v>246</v>
@@ -62241,10 +62264,10 @@
         <v>2.0</v>
       </c>
       <c r="E137" s="145" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
       <c r="F137" s="149" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="G137" s="146"/>
       <c r="H137" s="145"/>
@@ -62252,7 +62275,7 @@
         <v>1.0</v>
       </c>
       <c r="J137" s="145" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="K137" s="81" t="s">
         <v>1832</v>
@@ -62281,7 +62304,7 @@
     </row>
     <row r="138">
       <c r="A138" s="143" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
       <c r="B138" s="143" t="s">
         <v>246</v>
@@ -62293,10 +62316,10 @@
         <v>2.0</v>
       </c>
       <c r="E138" s="145" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="F138" s="149" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="G138" s="146"/>
       <c r="H138" s="145"/>
@@ -62304,7 +62327,7 @@
         <v>1.0</v>
       </c>
       <c r="J138" s="145" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="K138" s="81" t="s">
         <v>1832</v>
@@ -62333,7 +62356,7 @@
     </row>
     <row r="139">
       <c r="A139" s="143" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
       <c r="B139" s="143" t="s">
         <v>246</v>
@@ -62345,10 +62368,10 @@
         <v>2.0</v>
       </c>
       <c r="E139" s="145" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="F139" s="149" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="G139" s="146"/>
       <c r="H139" s="145"/>
@@ -62356,7 +62379,7 @@
         <v>1.0</v>
       </c>
       <c r="J139" s="145" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="K139" s="81" t="s">
         <v>1832</v>
@@ -62385,7 +62408,7 @@
     </row>
     <row r="140">
       <c r="A140" s="143" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
       <c r="B140" s="143" t="s">
         <v>246</v>
@@ -62397,10 +62420,10 @@
         <v>2.0</v>
       </c>
       <c r="E140" s="145" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="F140" s="149" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="G140" s="146"/>
       <c r="H140" s="145"/>
@@ -62460,7 +62483,7 @@
       <c r="D142" s="142"/>
       <c r="E142" s="142"/>
       <c r="F142" s="164" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
       <c r="G142" s="142"/>
       <c r="H142" s="142"/>
@@ -62477,7 +62500,7 @@
     </row>
     <row r="143">
       <c r="A143" s="143" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="B143" s="143" t="s">
         <v>246</v>
@@ -62489,10 +62512,10 @@
         <v>4.0</v>
       </c>
       <c r="E143" s="144" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="F143" s="108" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
       <c r="G143" s="146"/>
       <c r="H143" s="144"/>
@@ -62500,7 +62523,7 @@
         <v>1.0</v>
       </c>
       <c r="J143" s="144" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="K143" s="81" t="s">
         <v>1828</v>
@@ -62529,7 +62552,7 @@
     </row>
     <row r="144">
       <c r="A144" s="143" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
       <c r="B144" s="143" t="s">
         <v>246</v>
@@ -62541,10 +62564,10 @@
         <v>4.0</v>
       </c>
       <c r="E144" s="144" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="F144" s="108" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="G144" s="146"/>
       <c r="H144" s="144"/>
@@ -62552,7 +62575,7 @@
         <v>1.0</v>
       </c>
       <c r="J144" s="144" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="K144" s="81" t="s">
         <v>1828</v>
@@ -62581,7 +62604,7 @@
     </row>
     <row r="145">
       <c r="A145" s="143" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
       <c r="B145" s="143" t="s">
         <v>246</v>
@@ -62593,10 +62616,10 @@
         <v>4.0</v>
       </c>
       <c r="E145" s="144" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="F145" s="108" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="G145" s="146"/>
       <c r="H145" s="144"/>
@@ -62604,7 +62627,7 @@
         <v>1.0</v>
       </c>
       <c r="J145" s="144" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="K145" s="81" t="s">
         <v>1828</v>
@@ -62633,7 +62656,7 @@
     </row>
     <row r="146">
       <c r="A146" s="143" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
       <c r="B146" s="143" t="s">
         <v>246</v>
@@ -62645,10 +62668,10 @@
         <v>2.0</v>
       </c>
       <c r="E146" s="144" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="F146" s="108" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="G146" s="146"/>
       <c r="H146" s="144"/>
@@ -62656,7 +62679,7 @@
         <v>1.0</v>
       </c>
       <c r="J146" s="144" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="K146" s="81" t="s">
         <v>1828</v>
@@ -62685,7 +62708,7 @@
     </row>
     <row r="147">
       <c r="A147" s="143" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B147" s="143" t="s">
         <v>246</v>
@@ -62697,10 +62720,10 @@
         <v>2.0</v>
       </c>
       <c r="E147" s="144" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="F147" s="108" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
       <c r="G147" s="146"/>
       <c r="H147" s="144"/>
@@ -62708,7 +62731,7 @@
         <v>1.0</v>
       </c>
       <c r="J147" s="145" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="K147" s="81" t="s">
         <v>1828</v>
@@ -62737,7 +62760,7 @@
     </row>
     <row r="148">
       <c r="A148" s="143" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B148" s="143" t="s">
         <v>246</v>
@@ -62749,10 +62772,10 @@
         <v>2.0</v>
       </c>
       <c r="E148" s="144" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="F148" s="108" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
       <c r="G148" s="146"/>
       <c r="H148" s="144"/>
@@ -62760,7 +62783,7 @@
         <v>1.0</v>
       </c>
       <c r="J148" s="144" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
       <c r="K148" s="81" t="s">
         <v>1828</v>
@@ -62814,7 +62837,7 @@
       <c r="D150" s="166"/>
       <c r="E150" s="159"/>
       <c r="F150" s="164" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="G150" s="157"/>
       <c r="H150" s="157"/>
@@ -62831,7 +62854,7 @@
     </row>
     <row r="151" ht="222.0" customHeight="1">
       <c r="A151" s="143" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="B151" s="143" t="s">
         <v>246</v>
@@ -62843,16 +62866,16 @@
         <v>1.0</v>
       </c>
       <c r="E151" s="81" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
       <c r="F151" s="170" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="G151" s="81" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="H151" s="144" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="I151" s="144">
         <v>1.0</v>
@@ -62885,25 +62908,25 @@
     </row>
     <row r="152" ht="161.25" customHeight="1">
       <c r="A152" s="143" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="B152" s="143" t="s">
         <v>246</v>
       </c>
       <c r="C152" s="144" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D152" s="144">
         <v>1.0</v>
       </c>
       <c r="E152" s="144" t="s">
+        <v>2288</v>
+      </c>
+      <c r="F152" s="148" t="s">
+        <v>2289</v>
+      </c>
+      <c r="H152" s="144" t="s">
         <v>2285</v>
-      </c>
-      <c r="F152" s="148" t="s">
-        <v>2286</v>
-      </c>
-      <c r="H152" s="144" t="s">
-        <v>2282</v>
       </c>
       <c r="I152" s="144">
         <v>1.0</v>
@@ -62936,23 +62959,23 @@
     </row>
     <row r="153">
       <c r="A153" s="143" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="B153" s="143"/>
       <c r="C153" s="144" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D153" s="144">
         <v>1.0</v>
       </c>
       <c r="E153" s="144" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
       <c r="F153" s="149" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="H153" s="144" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="I153" s="144">
         <v>1.0</v>
@@ -62985,23 +63008,23 @@
     </row>
     <row r="154">
       <c r="A154" s="143" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="B154" s="143"/>
       <c r="C154" s="144" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="D154" s="144">
         <v>1.0</v>
       </c>
       <c r="E154" s="144" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
       <c r="F154" s="149" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="H154" s="144" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
       <c r="I154" s="144">
         <v>1.0</v>
@@ -63034,7 +63057,7 @@
     </row>
     <row r="155">
       <c r="A155" s="143" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="B155" s="143"/>
       <c r="C155" s="144" t="s">
@@ -63044,10 +63067,10 @@
         <v>32.0</v>
       </c>
       <c r="E155" s="144" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
       <c r="F155" s="149" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="G155" s="81"/>
       <c r="H155" s="144"/>
@@ -63055,7 +63078,7 @@
         <v>1.0</v>
       </c>
       <c r="J155" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K155" s="81" t="s">
         <v>1832</v>
@@ -63084,7 +63107,7 @@
     </row>
     <row r="156">
       <c r="A156" s="143" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="B156" s="143"/>
       <c r="C156" s="144" t="s">
@@ -63094,10 +63117,10 @@
         <v>1.0</v>
       </c>
       <c r="E156" s="144" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
       <c r="F156" s="149" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="G156" s="81"/>
       <c r="H156" s="144"/>
@@ -63132,7 +63155,7 @@
     </row>
     <row r="157">
       <c r="A157" s="143" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="B157" s="143" t="s">
         <v>246</v>
@@ -63144,10 +63167,10 @@
         <v>2.0</v>
       </c>
       <c r="E157" s="144" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
       <c r="F157" s="108" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="G157" s="146"/>
       <c r="H157" s="144"/>
@@ -63182,7 +63205,7 @@
     </row>
     <row r="158">
       <c r="A158" s="143" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="B158" s="143" t="s">
         <v>246</v>
@@ -63194,10 +63217,10 @@
         <v>2.0</v>
       </c>
       <c r="E158" s="144" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
       <c r="F158" s="108" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="G158" s="146"/>
       <c r="H158" s="144"/>
@@ -63232,7 +63255,7 @@
     </row>
     <row r="159">
       <c r="A159" s="143" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="B159" s="143" t="s">
         <v>246</v>
@@ -63244,10 +63267,10 @@
         <v>2.0</v>
       </c>
       <c r="E159" s="144" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
       <c r="F159" s="108" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="G159" s="146"/>
       <c r="H159" s="144"/>
@@ -63282,7 +63305,7 @@
     </row>
     <row r="160">
       <c r="A160" s="143" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="B160" s="143" t="s">
         <v>246</v>
@@ -63294,10 +63317,10 @@
         <v>2.0</v>
       </c>
       <c r="E160" s="145" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
       <c r="F160" s="148" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="G160" s="146"/>
       <c r="H160" s="144"/>
@@ -63332,7 +63355,7 @@
     </row>
     <row r="161">
       <c r="A161" s="143" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="B161" s="143" t="s">
         <v>246</v>
@@ -63344,10 +63367,10 @@
         <v>2.0</v>
       </c>
       <c r="E161" s="145" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
       <c r="F161" s="148" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="G161" s="81"/>
       <c r="H161" s="144"/>
@@ -63382,7 +63405,7 @@
     </row>
     <row r="162">
       <c r="A162" s="143" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="B162" s="143" t="s">
         <v>246</v>
@@ -63394,10 +63417,10 @@
         <v>2.0</v>
       </c>
       <c r="E162" s="145" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="F162" s="148" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="G162" s="81"/>
       <c r="H162" s="144"/>
@@ -63430,7 +63453,7 @@
     </row>
     <row r="163">
       <c r="A163" s="143" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="B163" s="143" t="s">
         <v>246</v>
@@ -63442,10 +63465,10 @@
         <v>4.0</v>
       </c>
       <c r="E163" s="145" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
       <c r="F163" s="149" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="G163" s="81"/>
       <c r="H163" s="144"/>
@@ -63478,7 +63501,7 @@
     </row>
     <row r="164">
       <c r="A164" s="143" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="B164" s="143" t="s">
         <v>246</v>
@@ -63490,10 +63513,10 @@
         <v>4.0</v>
       </c>
       <c r="E164" s="145" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
       <c r="F164" s="149" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="G164" s="81"/>
       <c r="H164" s="144"/>
@@ -63526,7 +63549,7 @@
     </row>
     <row r="165">
       <c r="A165" s="143" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="B165" s="143" t="s">
         <v>246</v>
@@ -63538,10 +63561,10 @@
         <v>4.0</v>
       </c>
       <c r="E165" s="145" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
       <c r="F165" s="149" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="G165" s="81"/>
       <c r="H165" s="144"/>
@@ -63599,7 +63622,7 @@
       <c r="D167" s="166"/>
       <c r="E167" s="159"/>
       <c r="F167" s="164" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="G167" s="157"/>
       <c r="H167" s="157"/>
@@ -63616,7 +63639,7 @@
     </row>
     <row r="168">
       <c r="A168" s="143" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
       <c r="B168" s="143" t="s">
         <v>246</v>
@@ -63628,10 +63651,10 @@
         <v>2.0</v>
       </c>
       <c r="E168" s="145" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="F168" s="149" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="G168" s="146"/>
       <c r="H168" s="144"/>
@@ -63666,7 +63689,7 @@
     </row>
     <row r="169">
       <c r="A169" s="143" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
       <c r="B169" s="143" t="s">
         <v>246</v>
@@ -63678,10 +63701,10 @@
         <v>2.0</v>
       </c>
       <c r="E169" s="145" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="F169" s="149" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="G169" s="146"/>
       <c r="H169" s="144"/>
@@ -63716,7 +63739,7 @@
     </row>
     <row r="170">
       <c r="A170" s="143" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
       <c r="B170" s="143" t="s">
         <v>246</v>
@@ -63728,10 +63751,10 @@
         <v>2.0</v>
       </c>
       <c r="E170" s="145" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="F170" s="149" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="G170" s="146"/>
       <c r="H170" s="144"/>
@@ -63766,7 +63789,7 @@
     </row>
     <row r="171">
       <c r="A171" s="143" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
       <c r="B171" s="143" t="s">
         <v>246</v>
@@ -63778,10 +63801,10 @@
         <v>4.0</v>
       </c>
       <c r="E171" s="165" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="F171" s="171" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="G171" s="146"/>
       <c r="H171" s="144"/>
@@ -63789,7 +63812,7 @@
         <v>1.0</v>
       </c>
       <c r="J171" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K171" s="81" t="s">
         <v>1832</v>
@@ -63818,7 +63841,7 @@
     </row>
     <row r="172">
       <c r="A172" s="143" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
       <c r="B172" s="143" t="s">
         <v>246</v>
@@ -63830,10 +63853,10 @@
         <v>4.0</v>
       </c>
       <c r="E172" s="165" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="F172" s="171" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="G172" s="146"/>
       <c r="H172" s="144"/>
@@ -63841,7 +63864,7 @@
         <v>1.0</v>
       </c>
       <c r="J172" s="144" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="K172" s="81" t="s">
         <v>1832</v>
@@ -63870,7 +63893,7 @@
     </row>
     <row r="173">
       <c r="A173" s="143" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
       <c r="B173" s="143" t="s">
         <v>246</v>
@@ -63882,10 +63905,10 @@
         <v>4.0</v>
       </c>
       <c r="E173" s="165" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="F173" s="171" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="G173" s="146"/>
       <c r="H173" s="144"/>
@@ -63893,7 +63916,7 @@
         <v>1.0</v>
       </c>
       <c r="J173" s="144" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="K173" s="81" t="s">
         <v>1832</v>
@@ -63922,7 +63945,7 @@
     </row>
     <row r="174">
       <c r="A174" s="143" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
       <c r="B174" s="143" t="s">
         <v>246</v>
@@ -63934,10 +63957,10 @@
         <v>2.0</v>
       </c>
       <c r="E174" s="145" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="F174" s="149" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="G174" s="146"/>
       <c r="H174" s="144"/>
@@ -63970,7 +63993,7 @@
     </row>
     <row r="175">
       <c r="A175" s="143" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
       <c r="B175" s="143" t="s">
         <v>246</v>
@@ -63982,10 +64005,10 @@
         <v>2.0</v>
       </c>
       <c r="E175" s="145" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="F175" s="149" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="G175" s="146"/>
       <c r="H175" s="144"/>
@@ -64018,7 +64041,7 @@
     </row>
     <row r="176">
       <c r="A176" s="143" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
       <c r="B176" s="143" t="s">
         <v>246</v>
@@ -64030,10 +64053,10 @@
         <v>2.0</v>
       </c>
       <c r="E176" s="145" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="F176" s="149" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="G176" s="146"/>
       <c r="H176" s="144"/>
@@ -64091,7 +64114,7 @@
       <c r="D178" s="166"/>
       <c r="E178" s="159"/>
       <c r="F178" s="164" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="G178" s="157"/>
       <c r="H178" s="157"/>
@@ -64108,7 +64131,7 @@
     </row>
     <row r="179">
       <c r="A179" s="143" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="B179" s="143" t="s">
         <v>246</v>
@@ -64120,10 +64143,10 @@
         <v>2.0</v>
       </c>
       <c r="E179" s="144" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="F179" s="108" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="G179" s="146"/>
       <c r="H179" s="144"/>
@@ -64158,7 +64181,7 @@
     </row>
     <row r="180">
       <c r="A180" s="143" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="B180" s="143" t="s">
         <v>246</v>
@@ -64170,10 +64193,10 @@
         <v>2.0</v>
       </c>
       <c r="E180" s="144" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="F180" s="108" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
       <c r="G180" s="146"/>
       <c r="H180" s="144"/>
@@ -64208,7 +64231,7 @@
     </row>
     <row r="181">
       <c r="A181" s="143" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="B181" s="143" t="s">
         <v>246</v>
@@ -64220,10 +64243,10 @@
         <v>2.0</v>
       </c>
       <c r="E181" s="144" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="F181" s="108" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
       <c r="G181" s="146"/>
       <c r="H181" s="144"/>
@@ -64258,7 +64281,7 @@
     </row>
     <row r="182">
       <c r="A182" s="143" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="B182" s="143" t="s">
         <v>246</v>
@@ -64270,10 +64293,10 @@
         <v>2.0</v>
       </c>
       <c r="E182" s="144" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="F182" s="108" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="G182" s="146"/>
       <c r="H182" s="144"/>
@@ -64308,7 +64331,7 @@
     </row>
     <row r="183">
       <c r="A183" s="143" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="B183" s="143" t="s">
         <v>246</v>
@@ -64320,10 +64343,10 @@
         <v>2.0</v>
       </c>
       <c r="E183" s="144" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="F183" s="108" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
       <c r="G183" s="146"/>
       <c r="H183" s="144"/>
@@ -64358,7 +64381,7 @@
     </row>
     <row r="184">
       <c r="A184" s="143" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="B184" s="143" t="s">
         <v>246</v>
@@ -64370,10 +64393,10 @@
         <v>2.0</v>
       </c>
       <c r="E184" s="144" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="F184" s="108" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
       <c r="G184" s="146"/>
       <c r="H184" s="144"/>
@@ -64501,7 +64524,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="96" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
       <c r="H2" s="96" t="s">
         <v>8</v>
@@ -64551,7 +64574,7 @@
     </row>
     <row r="4">
       <c r="A4" s="178" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="B4" s="179" t="s">
         <v>266</v>
@@ -64563,10 +64586,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="179" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="F4" s="180" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
       <c r="G4" s="181"/>
       <c r="H4" s="181"/>
@@ -64595,7 +64618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="186" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="B5" s="187" t="s">
         <v>266</v>
@@ -64607,10 +64630,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="187" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="F5" s="188" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
       <c r="G5" s="189"/>
       <c r="H5" s="189"/>
@@ -64638,7 +64661,7 @@
     </row>
     <row r="6">
       <c r="A6" s="178" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="B6" s="187" t="s">
         <v>266</v>
@@ -64650,10 +64673,10 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="187" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="F6" s="188" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
       <c r="G6" s="189"/>
       <c r="H6" s="189"/>
@@ -64681,7 +64704,7 @@
     </row>
     <row r="7">
       <c r="A7" s="186" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B7" s="187" t="s">
         <v>266</v>
@@ -64694,7 +64717,7 @@
       </c>
       <c r="E7" s="187"/>
       <c r="F7" s="188" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="G7" s="189"/>
       <c r="H7" s="189"/>
@@ -64723,7 +64746,7 @@
     </row>
     <row r="8">
       <c r="A8" s="178" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
       <c r="B8" s="187" t="s">
         <v>266</v>
@@ -64735,16 +64758,16 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="187" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="F8" s="188" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="G8" s="189" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
       <c r="H8" s="189" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="I8" s="189"/>
       <c r="J8" s="22"/>
@@ -64766,7 +64789,7 @@
     </row>
     <row r="9">
       <c r="A9" s="186" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="B9" s="187" t="s">
         <v>266</v>
@@ -64779,12 +64802,12 @@
       </c>
       <c r="E9" s="187"/>
       <c r="F9" s="188" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
       <c r="G9" s="189"/>
       <c r="H9" s="189"/>
       <c r="I9" s="189" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="190" t="b">
@@ -64806,7 +64829,7 @@
     </row>
     <row r="10">
       <c r="A10" s="178" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="B10" s="187" t="s">
         <v>266</v>
@@ -64819,12 +64842,12 @@
       </c>
       <c r="E10" s="187"/>
       <c r="F10" s="188" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
       <c r="G10" s="189"/>
       <c r="H10" s="189"/>
       <c r="I10" s="189" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="190" t="b">
@@ -64846,7 +64869,7 @@
     </row>
     <row r="11">
       <c r="A11" s="186" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="B11" s="187" t="s">
         <v>266</v>
@@ -64858,10 +64881,10 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="187" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="F11" s="188" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
       <c r="G11" s="189"/>
       <c r="H11" s="189"/>
@@ -64889,7 +64912,7 @@
     </row>
     <row r="12">
       <c r="A12" s="178" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="B12" s="187" t="s">
         <v>266</v>
@@ -64901,10 +64924,10 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="187" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="F12" s="188" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
       <c r="G12" s="189"/>
       <c r="H12" s="189"/>
@@ -64932,7 +64955,7 @@
     </row>
     <row r="13">
       <c r="A13" s="186" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="B13" s="187" t="s">
         <v>266</v>
@@ -64944,15 +64967,15 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="187" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="F13" s="188" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="G13" s="189"/>
       <c r="H13" s="189"/>
       <c r="I13" s="189" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>1832</v>
@@ -64976,7 +64999,7 @@
     </row>
     <row r="14">
       <c r="A14" s="178" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="B14" s="187" t="s">
         <v>266</v>
@@ -64989,12 +65012,12 @@
       </c>
       <c r="E14" s="187"/>
       <c r="F14" s="188" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="G14" s="189"/>
       <c r="H14" s="189"/>
       <c r="I14" s="189" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="190" t="b">
@@ -65016,7 +65039,7 @@
     </row>
     <row r="15">
       <c r="A15" s="186" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="B15" s="187" t="s">
         <v>266</v>
@@ -65029,12 +65052,12 @@
       </c>
       <c r="E15" s="187"/>
       <c r="F15" s="188" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
       <c r="G15" s="189"/>
       <c r="H15" s="189"/>
       <c r="I15" s="189" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="190" t="b">
@@ -65055,7 +65078,7 @@
     </row>
     <row r="16">
       <c r="A16" s="178" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="B16" s="187" t="s">
         <v>266</v>
@@ -65068,12 +65091,12 @@
       </c>
       <c r="E16" s="187"/>
       <c r="F16" s="188" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
       <c r="G16" s="189"/>
       <c r="H16" s="189"/>
       <c r="I16" s="189" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="190" t="b">
@@ -65094,7 +65117,7 @@
     </row>
     <row r="17">
       <c r="A17" s="186" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="B17" s="187" t="s">
         <v>266</v>
@@ -65107,12 +65130,12 @@
       </c>
       <c r="E17" s="187"/>
       <c r="F17" s="188" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="G17" s="189"/>
       <c r="H17" s="189"/>
       <c r="I17" s="189" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="190" t="b">
@@ -65133,7 +65156,7 @@
     </row>
     <row r="18">
       <c r="A18" s="178" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
       <c r="B18" s="187" t="s">
         <v>266</v>
@@ -65145,15 +65168,15 @@
         <v>1.0</v>
       </c>
       <c r="E18" s="187" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="F18" s="188" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="G18" s="189"/>
       <c r="H18" s="189"/>
       <c r="I18" s="189" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="J18" s="22" t="s">
         <v>1828</v>
@@ -65176,7 +65199,7 @@
     </row>
     <row r="19">
       <c r="A19" s="186" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
       <c r="B19" s="187" t="s">
         <v>266</v>
@@ -65189,7 +65212,7 @@
       </c>
       <c r="E19" s="187"/>
       <c r="F19" s="188" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="G19" s="189"/>
       <c r="H19" s="189"/>
@@ -65215,7 +65238,7 @@
     </row>
     <row r="20">
       <c r="A20" s="178" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="B20" s="187" t="s">
         <v>266</v>
@@ -65228,7 +65251,7 @@
       </c>
       <c r="E20" s="187"/>
       <c r="F20" s="188" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
       <c r="G20" s="189"/>
       <c r="H20" s="189"/>
@@ -65254,7 +65277,7 @@
     </row>
     <row r="21">
       <c r="A21" s="186" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B21" s="187" t="s">
         <v>266</v>
@@ -65267,7 +65290,7 @@
       </c>
       <c r="E21" s="187"/>
       <c r="F21" s="188" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="G21" s="189"/>
       <c r="H21" s="189"/>
@@ -65295,7 +65318,7 @@
     </row>
     <row r="22">
       <c r="A22" s="178" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
       <c r="B22" s="187" t="s">
         <v>266</v>
@@ -65308,7 +65331,7 @@
       </c>
       <c r="E22" s="187"/>
       <c r="F22" s="188" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="G22" s="189"/>
       <c r="H22" s="189"/>
@@ -65334,7 +65357,7 @@
     </row>
     <row r="23">
       <c r="A23" s="186" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="B23" s="187" t="s">
         <v>266</v>
@@ -65347,7 +65370,7 @@
       </c>
       <c r="E23" s="187"/>
       <c r="F23" s="188" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
       <c r="G23" s="189"/>
       <c r="H23" s="189"/>
@@ -65375,7 +65398,7 @@
     </row>
     <row r="24">
       <c r="A24" s="178" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="B24" s="187" t="s">
         <v>266</v>
@@ -65388,7 +65411,7 @@
       </c>
       <c r="E24" s="187"/>
       <c r="F24" s="188" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="G24" s="189"/>
       <c r="H24" s="189"/>
@@ -65416,7 +65439,7 @@
     </row>
     <row r="25">
       <c r="A25" s="186" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
       <c r="B25" s="187" t="s">
         <v>266</v>
@@ -65429,7 +65452,7 @@
       </c>
       <c r="E25" s="187"/>
       <c r="F25" s="188" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="G25" s="189"/>
       <c r="H25" s="189"/>
@@ -65457,7 +65480,7 @@
     </row>
     <row r="26">
       <c r="A26" s="178" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="B26" s="187" t="s">
         <v>266</v>
@@ -65470,12 +65493,12 @@
       </c>
       <c r="E26" s="187"/>
       <c r="F26" s="188" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
       <c r="G26" s="189"/>
       <c r="H26" s="189"/>
       <c r="I26" s="189" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="190" t="b">
@@ -65497,7 +65520,7 @@
     </row>
     <row r="27">
       <c r="A27" s="186" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="B27" s="187" t="s">
         <v>266</v>
@@ -65510,7 +65533,7 @@
       </c>
       <c r="E27" s="187"/>
       <c r="F27" s="188" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
       <c r="G27" s="189"/>
       <c r="H27" s="189"/>
@@ -65536,7 +65559,7 @@
     </row>
     <row r="28">
       <c r="A28" s="178" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="B28" s="187" t="s">
         <v>266</v>
@@ -65549,12 +65572,12 @@
       </c>
       <c r="E28" s="187"/>
       <c r="F28" s="188" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="G28" s="189"/>
       <c r="H28" s="189"/>
       <c r="I28" s="189" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
       <c r="J28" s="22"/>
       <c r="K28" s="190" t="b">
@@ -65576,20 +65599,20 @@
     </row>
     <row r="29">
       <c r="A29" s="186" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="B29" s="187" t="s">
         <v>266</v>
       </c>
       <c r="C29" s="187" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="D29" s="187">
         <v>1.0</v>
       </c>
       <c r="E29" s="187"/>
       <c r="F29" s="188" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="G29" s="189"/>
       <c r="H29" s="189"/>
@@ -65616,7 +65639,7 @@
     </row>
     <row r="30">
       <c r="A30" s="178" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="B30" s="187" t="s">
         <v>266</v>
@@ -65629,7 +65652,7 @@
       </c>
       <c r="E30" s="187"/>
       <c r="F30" s="188" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="G30" s="189"/>
       <c r="H30" s="189"/>
@@ -65656,7 +65679,7 @@
     </row>
     <row r="31">
       <c r="A31" s="186" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="B31" s="187" t="s">
         <v>266</v>
@@ -65669,7 +65692,7 @@
       </c>
       <c r="E31" s="187"/>
       <c r="F31" s="188" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="G31" s="189"/>
       <c r="H31" s="189"/>
@@ -65695,7 +65718,7 @@
     </row>
     <row r="32">
       <c r="A32" s="178" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="B32" s="187" t="s">
         <v>266</v>
@@ -65708,12 +65731,12 @@
       </c>
       <c r="E32" s="187"/>
       <c r="F32" s="188" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="G32" s="189"/>
       <c r="H32" s="189"/>
       <c r="I32" s="189" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="J32" s="22"/>
       <c r="K32" s="190" t="b">
@@ -65735,7 +65758,7 @@
     </row>
     <row r="33">
       <c r="A33" s="186" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>266</v>
@@ -65748,12 +65771,12 @@
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="172" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
       <c r="I33" s="22" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="125" t="b">
@@ -65775,7 +65798,7 @@
     </row>
     <row r="34">
       <c r="A34" s="178" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="B34" s="127" t="s">
         <v>266</v>
@@ -65787,15 +65810,15 @@
         <v>1.0</v>
       </c>
       <c r="E34" s="127" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="F34" s="128" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="G34" s="127"/>
       <c r="H34" s="127"/>
       <c r="I34" s="127" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="J34" s="127" t="s">
         <v>1828</v>
@@ -65818,7 +65841,7 @@
     </row>
     <row r="35">
       <c r="A35" s="186" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="B35" s="127" t="s">
         <v>266</v>
@@ -65830,15 +65853,15 @@
         <v>1.0</v>
       </c>
       <c r="E35" s="127" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="F35" s="128" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="G35" s="127"/>
       <c r="H35" s="127"/>
       <c r="I35" s="127" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="J35" s="127" t="s">
         <v>1828</v>
@@ -65861,7 +65884,7 @@
     </row>
     <row r="36">
       <c r="A36" s="178" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="B36" s="127" t="s">
         <v>266</v>
@@ -65873,15 +65896,15 @@
         <v>1.0</v>
       </c>
       <c r="E36" s="127" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="F36" s="128" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="G36" s="127"/>
       <c r="H36" s="127"/>
       <c r="I36" s="127" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="J36" s="127" t="s">
         <v>1828</v>
@@ -65904,7 +65927,7 @@
     </row>
     <row r="37">
       <c r="A37" s="186" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="B37" s="127" t="s">
         <v>266</v>
@@ -65916,7 +65939,7 @@
         <v>1.0</v>
       </c>
       <c r="E37" s="127" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="F37" s="128" t="s">
         <v>275</v>
@@ -65945,7 +65968,7 @@
     </row>
     <row r="38">
       <c r="A38" s="178" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="B38" s="127" t="s">
         <v>266</v>
@@ -65957,10 +65980,10 @@
         <v>1.0</v>
       </c>
       <c r="E38" s="196" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="F38" s="197" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="G38" s="198"/>
       <c r="H38" s="198"/>
@@ -65986,7 +66009,7 @@
     </row>
     <row r="39">
       <c r="A39" s="186" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="B39" s="127" t="s">
         <v>266</v>
@@ -65998,10 +66021,10 @@
         <v>1.0</v>
       </c>
       <c r="E39" s="196" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="F39" s="200" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="G39" s="198"/>
       <c r="H39" s="198"/>
@@ -66025,7 +66048,7 @@
     </row>
     <row r="40">
       <c r="A40" s="178" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="B40" s="127" t="s">
         <v>266</v>
@@ -66037,10 +66060,10 @@
         <v>1.0</v>
       </c>
       <c r="E40" s="196" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="F40" s="200" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="G40" s="198"/>
       <c r="H40" s="198"/>
@@ -66066,7 +66089,7 @@
     </row>
     <row r="41">
       <c r="A41" s="186" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
       <c r="B41" s="127" t="s">
         <v>266</v>
@@ -66078,10 +66101,10 @@
         <v>1.0</v>
       </c>
       <c r="E41" s="201" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="F41" s="202" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="G41" s="198"/>
       <c r="H41" s="198"/>
@@ -66107,7 +66130,7 @@
     </row>
     <row r="42">
       <c r="A42" s="178" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="B42" s="127" t="s">
         <v>266</v>
@@ -66119,10 +66142,10 @@
         <v>1.0</v>
       </c>
       <c r="E42" s="201" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="F42" s="197" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="G42" s="198"/>
       <c r="H42" s="198"/>
@@ -66148,7 +66171,7 @@
     </row>
     <row r="43">
       <c r="A43" s="186" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
       <c r="B43" s="127" t="s">
         <v>266</v>
@@ -66160,10 +66183,10 @@
         <v>1.0</v>
       </c>
       <c r="E43" s="127" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="F43" s="203" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="G43" s="198"/>
       <c r="H43" s="198"/>
@@ -66187,7 +66210,7 @@
     </row>
     <row r="44">
       <c r="A44" s="178" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
       <c r="B44" s="127" t="s">
         <v>266</v>
@@ -66199,10 +66222,10 @@
         <v>1.0</v>
       </c>
       <c r="E44" s="201" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="F44" s="197" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="G44" s="198"/>
       <c r="H44" s="198"/>
@@ -66226,7 +66249,7 @@
     </row>
     <row r="45">
       <c r="A45" s="186" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
       <c r="B45" s="127" t="s">
         <v>266</v>
@@ -66238,17 +66261,17 @@
         <v>1.0</v>
       </c>
       <c r="E45" s="204" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="F45" s="203" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="G45" s="205"/>
       <c r="H45" s="204">
         <v>10.0</v>
       </c>
       <c r="I45" s="204" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="J45" s="22" t="s">
         <v>1832</v>
@@ -66303,7 +66326,7 @@
     </row>
     <row r="51">
       <c r="A51" s="206" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="B51" s="127" t="s">
         <v>266</v>
@@ -66318,7 +66341,7 @@
         <v>1826</v>
       </c>
       <c r="F51" s="128" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="G51" s="127"/>
       <c r="H51" s="127"/>
@@ -66344,10 +66367,10 @@
     </row>
     <row r="52">
       <c r="A52" s="206" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
       <c r="B52" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C52" s="201" t="s">
         <v>1758</v>
@@ -66357,7 +66380,7 @@
       </c>
       <c r="E52" s="127"/>
       <c r="F52" s="128" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="G52" s="127"/>
       <c r="H52" s="127"/>
@@ -66383,10 +66406,10 @@
     </row>
     <row r="53">
       <c r="A53" s="206" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
       <c r="B53" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C53" s="201" t="s">
         <v>1758</v>
@@ -66396,7 +66419,7 @@
       </c>
       <c r="E53" s="207"/>
       <c r="F53" s="128" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="G53" s="207"/>
       <c r="H53" s="207"/>
@@ -66422,10 +66445,10 @@
     </row>
     <row r="54">
       <c r="A54" s="206" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="B54" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C54" s="201" t="s">
         <v>1758</v>
@@ -66435,7 +66458,7 @@
       </c>
       <c r="E54" s="207"/>
       <c r="F54" s="128" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
       <c r="G54" s="207"/>
       <c r="H54" s="207"/>
@@ -66461,10 +66484,10 @@
     </row>
     <row r="55">
       <c r="A55" s="206" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="B55" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C55" s="201" t="s">
         <v>1758</v>
@@ -66474,7 +66497,7 @@
       </c>
       <c r="E55" s="207"/>
       <c r="F55" s="128" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="G55" s="207"/>
       <c r="H55" s="207"/>
@@ -66500,10 +66523,10 @@
     </row>
     <row r="56">
       <c r="A56" s="206" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
       <c r="B56" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C56" s="201" t="s">
         <v>1758</v>
@@ -66513,7 +66536,7 @@
       </c>
       <c r="E56" s="207"/>
       <c r="F56" s="200" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="G56" s="207"/>
       <c r="H56" s="207"/>
@@ -66539,10 +66562,10 @@
     </row>
     <row r="57">
       <c r="A57" s="206" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="B57" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C57" s="201" t="s">
         <v>286</v>
@@ -66552,7 +66575,7 @@
       </c>
       <c r="E57" s="207"/>
       <c r="F57" s="200" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
       <c r="G57" s="207"/>
       <c r="H57" s="207"/>
@@ -66576,10 +66599,10 @@
     </row>
     <row r="58">
       <c r="A58" s="206" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="B58" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C58" s="201" t="s">
         <v>286</v>
@@ -66589,7 +66612,7 @@
       </c>
       <c r="E58" s="207"/>
       <c r="F58" s="200" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="G58" s="207"/>
       <c r="H58" s="207"/>
@@ -66613,10 +66636,10 @@
     </row>
     <row r="59">
       <c r="A59" s="206" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
       <c r="B59" s="127" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="C59" s="201" t="s">
         <v>286</v>
@@ -66626,7 +66649,7 @@
       </c>
       <c r="E59" s="207"/>
       <c r="F59" s="200" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="G59" s="207"/>
       <c r="H59" s="207"/>
@@ -66650,13 +66673,13 @@
     </row>
     <row r="60">
       <c r="A60" s="206" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="B60" s="127" t="s">
         <v>266</v>
       </c>
       <c r="C60" s="201" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="D60" s="201">
         <v>1.0</v>
@@ -66689,13 +66712,13 @@
     </row>
     <row r="61">
       <c r="A61" s="206" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="B61" s="127" t="s">
         <v>266</v>
       </c>
       <c r="C61" s="201" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
       <c r="D61" s="201">
         <v>1.0</v>
@@ -66728,7 +66751,7 @@
     </row>
     <row r="62">
       <c r="A62" s="206" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="B62" s="127" t="s">
         <v>266</v>
@@ -66741,7 +66764,7 @@
       </c>
       <c r="E62" s="207"/>
       <c r="F62" s="200" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
       <c r="G62" s="207"/>
       <c r="H62" s="207"/>
@@ -66765,7 +66788,7 @@
     </row>
     <row r="63">
       <c r="A63" s="206" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="B63" s="127" t="s">
         <v>266</v>
@@ -66778,7 +66801,7 @@
       </c>
       <c r="E63" s="207"/>
       <c r="F63" s="200" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="G63" s="207"/>
       <c r="H63" s="207"/>
@@ -66802,7 +66825,7 @@
     </row>
     <row r="64">
       <c r="A64" s="206" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
       <c r="B64" s="127" t="s">
         <v>266</v>
@@ -66815,7 +66838,7 @@
       </c>
       <c r="E64" s="207"/>
       <c r="F64" s="200" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="G64" s="207"/>
       <c r="H64" s="207"/>
@@ -66839,7 +66862,7 @@
     </row>
     <row r="65">
       <c r="A65" s="206" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="B65" s="127" t="s">
         <v>266</v>
@@ -66852,7 +66875,7 @@
       </c>
       <c r="E65" s="207"/>
       <c r="F65" s="200" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
       <c r="G65" s="207"/>
       <c r="H65" s="207"/>
@@ -66876,7 +66899,7 @@
     </row>
     <row r="66">
       <c r="A66" s="206" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="B66" s="127" t="s">
         <v>266</v>
@@ -66889,7 +66912,7 @@
       </c>
       <c r="E66" s="207"/>
       <c r="F66" s="200" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="G66" s="207"/>
       <c r="H66" s="207"/>
@@ -66913,7 +66936,7 @@
     </row>
     <row r="67">
       <c r="A67" s="206" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
       <c r="B67" s="127" t="s">
         <v>266</v>
@@ -66926,7 +66949,7 @@
       </c>
       <c r="E67" s="207"/>
       <c r="F67" s="200" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="G67" s="207"/>
       <c r="H67" s="207"/>
@@ -66950,7 +66973,7 @@
     </row>
     <row r="68">
       <c r="A68" s="206" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="B68" s="127" t="s">
         <v>266</v>
@@ -66963,7 +66986,7 @@
       </c>
       <c r="E68" s="207"/>
       <c r="F68" s="200" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
       <c r="G68" s="207"/>
       <c r="H68" s="207"/>
@@ -66987,7 +67010,7 @@
     </row>
     <row r="69">
       <c r="A69" s="206" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="B69" s="127" t="s">
         <v>266</v>
@@ -67000,7 +67023,7 @@
       </c>
       <c r="E69" s="207"/>
       <c r="F69" s="200" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="G69" s="207"/>
       <c r="H69" s="207"/>
@@ -67024,7 +67047,7 @@
     </row>
     <row r="70">
       <c r="A70" s="206" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
       <c r="B70" s="127" t="s">
         <v>266</v>
@@ -67037,7 +67060,7 @@
       </c>
       <c r="E70" s="207"/>
       <c r="F70" s="200" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="G70" s="207"/>
       <c r="H70" s="207"/>
@@ -67061,7 +67084,7 @@
     </row>
     <row r="71">
       <c r="A71" s="206" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="B71" s="127" t="s">
         <v>266</v>
@@ -67074,7 +67097,7 @@
       </c>
       <c r="E71" s="207"/>
       <c r="F71" s="200" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="G71" s="207"/>
       <c r="H71" s="207"/>
@@ -67098,7 +67121,7 @@
     </row>
     <row r="72">
       <c r="A72" s="206" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
       <c r="B72" s="127" t="s">
         <v>266</v>
@@ -67111,7 +67134,7 @@
       </c>
       <c r="E72" s="207"/>
       <c r="F72" s="200" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="G72" s="207"/>
       <c r="H72" s="207"/>
@@ -67135,7 +67158,7 @@
     </row>
     <row r="73">
       <c r="A73" s="206" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="B73" s="127" t="s">
         <v>266</v>
@@ -67148,7 +67171,7 @@
       </c>
       <c r="E73" s="207"/>
       <c r="F73" s="200" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
       <c r="G73" s="207"/>
       <c r="H73" s="207"/>
@@ -67172,7 +67195,7 @@
     </row>
     <row r="74">
       <c r="A74" s="206" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B74" s="127" t="s">
         <v>266</v>
@@ -67185,7 +67208,7 @@
       </c>
       <c r="E74" s="207"/>
       <c r="F74" s="200" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="G74" s="207"/>
       <c r="H74" s="207"/>
@@ -67209,7 +67232,7 @@
     </row>
     <row r="75">
       <c r="A75" s="206" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
       <c r="B75" s="127" t="s">
         <v>266</v>
@@ -67222,7 +67245,7 @@
       </c>
       <c r="E75" s="207"/>
       <c r="F75" s="200" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="G75" s="207"/>
       <c r="H75" s="207"/>
@@ -67246,7 +67269,7 @@
     </row>
     <row r="76">
       <c r="A76" s="206" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="B76" s="127" t="s">
         <v>266</v>
@@ -67259,7 +67282,7 @@
       </c>
       <c r="E76" s="213"/>
       <c r="F76" s="200" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
       <c r="G76" s="213"/>
       <c r="H76" s="213"/>
@@ -67283,7 +67306,7 @@
     </row>
     <row r="77">
       <c r="A77" s="206" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="B77" s="127" t="s">
         <v>266</v>
@@ -67296,7 +67319,7 @@
       </c>
       <c r="E77" s="213"/>
       <c r="F77" s="200" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="G77" s="213"/>
       <c r="H77" s="213"/>
@@ -67320,7 +67343,7 @@
     </row>
     <row r="78">
       <c r="A78" s="206" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
       <c r="B78" s="127" t="s">
         <v>266</v>
@@ -67333,7 +67356,7 @@
       </c>
       <c r="E78" s="213"/>
       <c r="F78" s="200" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="G78" s="213"/>
       <c r="H78" s="213"/>
@@ -67357,7 +67380,7 @@
     </row>
     <row r="79">
       <c r="A79" s="206" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="B79" s="127" t="s">
         <v>266</v>
@@ -67370,7 +67393,7 @@
       </c>
       <c r="E79" s="213"/>
       <c r="F79" s="200" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
       <c r="G79" s="213"/>
       <c r="H79" s="213"/>
@@ -67394,7 +67417,7 @@
     </row>
     <row r="80">
       <c r="A80" s="206" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="B80" s="127" t="s">
         <v>266</v>
@@ -67407,7 +67430,7 @@
       </c>
       <c r="E80" s="213"/>
       <c r="F80" s="200" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="G80" s="213"/>
       <c r="H80" s="213"/>
@@ -67431,7 +67454,7 @@
     </row>
     <row r="81">
       <c r="A81" s="206" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="B81" s="127" t="s">
         <v>266</v>
@@ -67444,7 +67467,7 @@
       </c>
       <c r="E81" s="213"/>
       <c r="F81" s="200" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="G81" s="213"/>
       <c r="H81" s="213"/>
@@ -67468,7 +67491,7 @@
     </row>
     <row r="82">
       <c r="A82" s="206" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="B82" s="127" t="s">
         <v>266</v>
@@ -67481,7 +67504,7 @@
       </c>
       <c r="E82" s="207"/>
       <c r="F82" s="200" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
       <c r="G82" s="207"/>
       <c r="H82" s="207"/>
@@ -67505,7 +67528,7 @@
     </row>
     <row r="83">
       <c r="A83" s="206" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="B83" s="127" t="s">
         <v>266</v>
@@ -67518,7 +67541,7 @@
       </c>
       <c r="E83" s="207"/>
       <c r="F83" s="200" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="G83" s="207"/>
       <c r="H83" s="207"/>
@@ -67542,7 +67565,7 @@
     </row>
     <row r="84">
       <c r="A84" s="206" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
       <c r="B84" s="127" t="s">
         <v>266</v>
@@ -67555,7 +67578,7 @@
       </c>
       <c r="E84" s="207"/>
       <c r="F84" s="200" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="G84" s="207"/>
       <c r="H84" s="207"/>
@@ -67579,7 +67602,7 @@
     </row>
     <row r="85">
       <c r="A85" s="206" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="B85" s="127" t="s">
         <v>266</v>
@@ -67592,7 +67615,7 @@
       </c>
       <c r="E85" s="207"/>
       <c r="F85" s="200" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
       <c r="G85" s="207"/>
       <c r="H85" s="207"/>
@@ -67616,7 +67639,7 @@
     </row>
     <row r="86">
       <c r="A86" s="206" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="B86" s="127" t="s">
         <v>266</v>
@@ -67629,7 +67652,7 @@
       </c>
       <c r="E86" s="207"/>
       <c r="F86" s="200" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="G86" s="207"/>
       <c r="H86" s="207"/>
@@ -67653,7 +67676,7 @@
     </row>
     <row r="87">
       <c r="A87" s="206" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
       <c r="B87" s="127" t="s">
         <v>266</v>
@@ -67666,7 +67689,7 @@
       </c>
       <c r="E87" s="213"/>
       <c r="F87" s="200" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="G87" s="213"/>
       <c r="H87" s="213"/>
@@ -67690,7 +67713,7 @@
     </row>
     <row r="88">
       <c r="A88" s="206" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="B88" s="127" t="s">
         <v>266</v>
@@ -67703,7 +67726,7 @@
       </c>
       <c r="E88" s="213"/>
       <c r="F88" s="200" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
       <c r="G88" s="213"/>
       <c r="H88" s="213"/>
@@ -67727,7 +67750,7 @@
     </row>
     <row r="89">
       <c r="A89" s="206" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="B89" s="127" t="s">
         <v>266</v>
@@ -67740,7 +67763,7 @@
       </c>
       <c r="E89" s="213"/>
       <c r="F89" s="200" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="G89" s="213"/>
       <c r="H89" s="213"/>
@@ -67764,7 +67787,7 @@
     </row>
     <row r="90">
       <c r="A90" s="206" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
       <c r="B90" s="127" t="s">
         <v>266</v>
@@ -67777,7 +67800,7 @@
       </c>
       <c r="E90" s="213"/>
       <c r="F90" s="200" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="G90" s="213"/>
       <c r="H90" s="213"/>
@@ -67801,7 +67824,7 @@
     </row>
     <row r="91">
       <c r="A91" s="206" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="B91" s="127" t="s">
         <v>266</v>
@@ -67814,7 +67837,7 @@
       </c>
       <c r="E91" s="213"/>
       <c r="F91" s="200" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
       <c r="G91" s="213"/>
       <c r="H91" s="213"/>
@@ -67838,7 +67861,7 @@
     </row>
     <row r="92">
       <c r="A92" s="206" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="B92" s="127" t="s">
         <v>266</v>
@@ -67851,7 +67874,7 @@
       </c>
       <c r="E92" s="213"/>
       <c r="F92" s="200" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="G92" s="213"/>
       <c r="H92" s="213"/>
@@ -67875,7 +67898,7 @@
     </row>
     <row r="93">
       <c r="A93" s="206" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
       <c r="B93" s="127" t="s">
         <v>266</v>
@@ -67888,7 +67911,7 @@
       </c>
       <c r="E93" s="207"/>
       <c r="F93" s="200" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="G93" s="207"/>
       <c r="H93" s="207"/>
@@ -67912,7 +67935,7 @@
     </row>
     <row r="94">
       <c r="A94" s="206" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="B94" s="127" t="s">
         <v>266</v>
@@ -67924,10 +67947,10 @@
         <v>1.0</v>
       </c>
       <c r="E94" s="214" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
       <c r="F94" s="200" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="G94" s="207"/>
       <c r="H94" s="214">
